--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1600" yWindow="1460" windowWidth="31560" windowHeight="15660" tabRatio="500" activeTab="6"/>
+    <workbookView xWindow="1600" yWindow="1460" windowWidth="31560" windowHeight="15660" tabRatio="500" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="8" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Rate laws" sheetId="11" r:id="rId8"/>
     <sheet name="Parameters" sheetId="5" r:id="rId9"/>
     <sheet name="References" sheetId="6" r:id="rId10"/>
-    <sheet name="Cross references" sheetId="12" r:id="rId11"/>
+    <sheet name="Database references" sheetId="12" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$E$3</definedName>
@@ -1035,7 +1035,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1612,7 +1612,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -34,14 +34,19 @@
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -53,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -253,9 +258,15 @@
     <t xml:space="preserve">Value</t>
   </si>
   <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_1[e]</t>
   </si>
   <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
     <t xml:space="preserve">specie_2[e]</t>
   </si>
   <si>
@@ -374,9 +385,6 @@
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
   </si>
   <si>
     <t xml:space="preserve">fractionDryWeight</t>
@@ -741,7 +749,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.5668016194332"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6761133603239"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -834,25 +842,25 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.3481781376518"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -863,24 +871,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>2000</v>
@@ -889,13 +897,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0003</v>
@@ -906,13 +914,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0003</v>
@@ -923,13 +931,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.0003</v>
@@ -962,13 +970,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="15" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="15" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="15" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="15" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -983,10 +991,10 @@
         <v>23</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>13</v>
@@ -1036,8 +1044,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="15" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="15" width="23.4574898785425"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="15" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -1091,11 +1099,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="47.8825910931174"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1110,13 +1118,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>65</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>107</v>
+        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1127,10 +1135,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1139,10 +1147,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -1185,7 +1193,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1216,9 +1224,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.5303643724696"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="30.7449392712551"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.0647773279352"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1233,46 +1241,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1309,10 +1317,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1321,22 +1329,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>22</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1429,16 +1437,16 @@
   </sheetPr>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.5344129554656"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.6396761133603"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="8.78542510121457"/>
@@ -1529,9 +1537,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.246963562753"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="12.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.1336032388664"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.3522267206478"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.4534412955466"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
@@ -1617,12 +1625,12 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.96356275303644"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.0688259109312"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.5303643724696"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.6396761133603"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="5" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="5" width="8.78542510121457"/>
   </cols>
@@ -1840,24 +1848,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="197" zoomScaleNormal="197" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="197" zoomScaleNormal="197" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.96356275303644"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="2" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="10" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="12" min="12" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="1025" min="13" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="12" min="11" style="2" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1868,58 +1876,79 @@
         <v>65</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>0.000148</v>
       </c>
+      <c r="C2" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0.0002</v>
       </c>
+      <c r="C3" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C4" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0.0005</v>
       </c>
+      <c r="C5" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>0.001</v>
       </c>
+      <c r="C6" s="10" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0.002</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1963,7 +1992,7 @@
         <v>64</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2007,7 +2036,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2037,10 +2066,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.1740890688259"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.3481781376518"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2052,19 +2081,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G1" s="11" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>13</v>
@@ -2075,16 +2104,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E2" s="12" t="n">
         <v>0</v>
@@ -2096,16 +2125,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E3" s="12" t="n">
         <v>0</v>
@@ -2117,16 +2146,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E4" s="12" t="n">
         <v>1</v>
@@ -2138,16 +2167,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E5" s="12" t="n">
         <v>0</v>
@@ -2162,13 +2191,13 @@
         <v>62</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="989" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -35,18 +35,23 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -58,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -126,262 +131,262 @@
     <t xml:space="preserve">Algorithm</t>
   </si>
   <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O2Na3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3SO4C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
     <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O2Na3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3SO4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -749,7 +754,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.6761133603239"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -842,25 +847,25 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>99</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -871,24 +876,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B2" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>100</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>2000</v>
@@ -897,13 +902,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0003</v>
@@ -914,13 +919,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>105</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0003</v>
@@ -931,13 +936,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.0003</v>
@@ -971,8 +976,8 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="15" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="15" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="15" width="9.31983805668016"/>
@@ -988,13 +993,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>107</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>13</v>
@@ -1044,8 +1049,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="15" width="23.4574898785425"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="15" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="15" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -1057,7 +1062,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>13</v>
@@ -1099,11 +1104,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.8178137651822"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="42.7408906882591"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.17004048583"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.3117408906883"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.7408906882591"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1121,10 +1126,10 @@
         <v>108</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1193,7 +1198,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1224,9 +1229,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.0647773279352"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.3846153846154"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1253,7 +1258,7 @@
         <v>116</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>117</v>
@@ -1332,16 +1337,16 @@
         <v>128</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>129</v>
@@ -1435,24 +1440,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="10" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.748987854251"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1023" min="9" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1475,41 +1480,39 @@
         <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1537,9 +1540,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.3522267206478"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.4534412955466"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.7773279352227"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
@@ -1555,7 +1558,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
@@ -1566,10 +1569,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1578,15 +1581,15 @@
         <v>4.58E-017</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>1</v>
@@ -1595,7 +1598,7 @@
         <v>1E-012</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -1625,12 +1628,12 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="5" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="5" width="8.78542510121457"/>
   </cols>
@@ -1646,19 +1649,19 @@
         <v>16</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>41</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>42</v>
       </c>
       <c r="I1" s="6" t="s">
         <v>13</v>
@@ -1669,16 +1672,16 @@
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="5" t="n">
         <v>1</v>
@@ -1687,22 +1690,22 @@
         <v>0</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="9"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F3" s="5" t="n">
         <v>2</v>
@@ -1711,22 +1714,22 @@
         <v>0</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="9"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>50</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>51</v>
       </c>
       <c r="C4" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>3</v>
@@ -1735,22 +1738,22 @@
         <v>0</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I4" s="9"/>
     </row>
     <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B5" s="8" t="s">
         <v>53</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>54</v>
       </c>
       <c r="C5" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="8" t="n">
         <v>4</v>
@@ -1759,22 +1762,22 @@
         <v>0</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I5" s="9"/>
     </row>
     <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="8" t="s">
         <v>56</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>57</v>
       </c>
       <c r="C6" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F6" s="8" t="n">
         <v>5</v>
@@ -1783,22 +1786,22 @@
         <v>0</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I6" s="9"/>
     </row>
     <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="8" t="s">
         <v>59</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>60</v>
       </c>
       <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F7" s="8" t="n">
         <v>6</v>
@@ -1807,15 +1810,15 @@
         <v>0</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>1</v>
@@ -1827,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1850,7 +1853,7 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="197" zoomScaleNormal="197" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="197" zoomScaleNormal="197" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
     </sheetView>
   </sheetViews>
@@ -1860,23 +1863,23 @@
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.0688259109312"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.1781376518219"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="18.7449392712551"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>66</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1887,68 +1890,68 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -1989,10 +1992,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2036,7 +2039,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2066,10 +2069,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.6761133603239"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.6761133603239"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.4939271255061"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.9919028340081"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -2081,19 +2084,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="F1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>79</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>80</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>13</v>
@@ -2104,16 +2107,16 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E2" s="12" t="n">
         <v>0</v>
@@ -2125,16 +2128,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>85</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>86</v>
       </c>
       <c r="E3" s="12" t="n">
         <v>0</v>
@@ -2146,16 +2149,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="E4" s="12" t="n">
         <v>1</v>
@@ -2167,16 +2170,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>92</v>
       </c>
       <c r="E5" s="12" t="n">
         <v>0</v>
@@ -2188,16 +2191,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,45 +13,51 @@
     <sheet name="Submodels" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="Compartments" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="Species types" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="Concentrations" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="Observables" sheetId="7" state="visible" r:id="rId8"/>
-    <sheet name="Functions" sheetId="8" state="visible" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="9" state="visible" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="10" state="visible" r:id="rId11"/>
-    <sheet name="Biomass components" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Parameters" sheetId="13" state="visible" r:id="rId14"/>
-    <sheet name="Stop conditions" sheetId="14" state="visible" r:id="rId15"/>
-    <sheet name="References" sheetId="15" state="visible" r:id="rId16"/>
-    <sheet name="Database references" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Species" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="Concentrations" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" state="visible" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
+    <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
+    <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
+    <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="true" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
     <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
     <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="8" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="12" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="14" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -63,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="133">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -254,6 +260,39 @@
     <t xml:space="preserve">metabolite</t>
   </si>
   <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass[c]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Species</t>
   </si>
   <si>
@@ -263,27 +302,9 @@
     <t xml:space="preserve">Units</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
     <t xml:space="preserve">M</t>
   </si>
   <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
     <t xml:space="preserve">Observables</t>
   </si>
   <si>
@@ -381,12 +402,6 @@
   </si>
   <si>
     <t xml:space="preserve">Coefficient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -754,7 +769,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8906882591093"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -838,34 +853,197 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D2" activeCellId="0" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.6032388663968"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.78542510121457"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="13"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="13"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="12" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>96</v>
+      </c>
+      <c r="E5" s="12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:D5"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="38.9919028340081"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
@@ -876,24 +1054,24 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>2000</v>
@@ -902,13 +1080,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0003</v>
@@ -919,13 +1097,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0003</v>
@@ -936,13 +1114,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.0003</v>
@@ -962,7 +1140,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -976,8 +1154,8 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="15" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="20.8866396761134"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="15" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="15" width="9.31983805668016"/>
@@ -996,10 +1174,10 @@
         <v>22</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>13</v>
@@ -1036,7 +1214,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1049,8 +1227,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="15" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="15" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="15" width="10.8178137651822"/>
   </cols>
   <sheetData>
@@ -1062,7 +1240,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="D1" s="16" t="s">
         <v>13</v>
@@ -1091,7 +1269,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1104,11 +1282,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.17004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.5991902834008"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="48.7408906882591"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="49.165991902834"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1123,13 +1301,13 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
@@ -1140,10 +1318,10 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>1</v>
@@ -1152,10 +1330,10 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1171,7 +1349,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1198,7 +1376,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -1215,7 +1393,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1229,9 +1407,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.7449392712551"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.3846153846154"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.5991902834008"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1246,46 +1424,46 @@
         <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>13</v>
@@ -1304,7 +1482,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1322,10 +1500,10 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
@@ -1334,22 +1512,22 @@
         <v>16</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1442,7 +1620,7 @@
   </sheetPr>
   <dimension ref="1:3"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
     </sheetView>
   </sheetViews>
@@ -1450,8 +1628,8 @@
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31983805668016"/>
@@ -1540,9 +1718,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.4615384615385"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="44.7773279352227"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.5668016194332"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="45.0971659919028"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8178137651822"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
@@ -1628,12 +1806,12 @@
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.9959514170041"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.4615384615385"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="10" min="10" style="5" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="1025" min="11" style="5" width="8.78542510121457"/>
   </cols>
@@ -1851,10 +2029,162 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:F30"/>
+  <sheetViews>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C11" activeCellId="0" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.8"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="197" zoomScaleNormal="197" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
@@ -1863,23 +2193,23 @@
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.1781376518219"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2834008097166"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="18.8542510121457"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.3522267206478"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
@@ -1890,68 +2220,68 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1965,7 +2295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1992,10 +2322,10 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F1" s="0" t="s">
         <v>13</v>
@@ -2012,7 +2342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -2039,7 +2369,7 @@
         <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E1" s="0" t="s">
         <v>13</v>
@@ -2054,167 +2384,4 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:I6"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.7813765182186"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.4939271255061"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.7813765182186"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="44.9919028340081"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.78542510121457"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="3" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I1" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E3" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E4" s="12" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>91</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E6" s="2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <autoFilter ref="A1:D5"/>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-  <drawing r:id="rId1"/>
-</worksheet>
 </file>
--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,45 +19,60 @@
     <sheet name="Functions" sheetId="9" state="visible" r:id="rId10"/>
     <sheet name="Reactions" sheetId="10" state="visible" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" state="visible" r:id="rId12"/>
-    <sheet name="Biomass components" sheetId="12" state="visible" r:id="rId13"/>
-    <sheet name="Biomass reactions" sheetId="13" state="visible" r:id="rId14"/>
+    <sheet name="Biomass reactions" sheetId="12" state="visible" r:id="rId13"/>
+    <sheet name="Biomass components" sheetId="13" state="visible" r:id="rId14"/>
     <sheet name="Parameters" sheetId="14" state="visible" r:id="rId15"/>
     <sheet name="Stop conditions" sheetId="15" state="visible" r:id="rId16"/>
     <sheet name="References" sheetId="16" state="visible" r:id="rId17"/>
     <sheet name="Database references" sheetId="17" state="visible" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
+    <definedName function="false" hidden="true" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
     <definedName function="false" hidden="true" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="true" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
-    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="2" name="_xlnm._FilterDatabase" vbProcedure="false">submodels!#REF!</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$E$3</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$J$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Compartments!$A$1:$D$3</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">'Species types'!$A$1:$I$6</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
+    <definedName function="false" hidden="false" localSheetId="9" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Reactions!$A$1:$D$5</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
     <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
-    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$E$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="13" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">Parameters!$A$1:$F$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
+    <definedName function="false" hidden="false" localSheetId="15" name="_xlnm._FilterDatabase_0_0_0_0_0_0_0" vbProcedure="false">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -69,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="132">
   <si>
     <t xml:space="preserve">Id</t>
   </si>
@@ -119,289 +134,286 @@
     <t xml:space="preserve">Test model for TestExecutableModel</t>
   </si>
   <si>
+    <t xml:space="preserve">Rank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">domain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rank not used</t>
+  </si>
+  <si>
+    <t xml:space="preserve">References</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Objective function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dfba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">submodel_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RNA degradation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Initial volume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cell</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extracellular space</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Structure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Empirical formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Molecular weight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Charge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pseudo_species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2O2Na3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H3SO4C9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_name_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U238</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metabolite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compartment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[e]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_3[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">biomass[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Species</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Units</t>
+  </si>
+  <si>
+    <t xml:space="preserve">M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Submodel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reversible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Min flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Max flux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reaction_name_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Metabolism production</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; biomass</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">forward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">k_cat * specie_2[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_4[c] / k_m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Biomass reaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coefficient</t>
+  </si>
+  <si>
     <t xml:space="preserve">Model</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">domain</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rank not used</t>
-  </si>
-  <si>
-    <t xml:space="preserve">References</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Algorithm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biomass reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Objective function</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dfba</t>
-  </si>
-  <si>
-    <t xml:space="preserve">submodel_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RNA degradation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial volume</t>
-  </si>
-  <si>
-    <t xml:space="preserve">c</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cell</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extracellular space</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Structure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Empirical formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molecular weight</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Charge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pseudo_species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N2O2Na3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H3SO4C9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">H20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_name_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">U238</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">metabolite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compartment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[e]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_3[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">biomass[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Species</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Value</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Units</t>
-  </si>
-  <si>
-    <t xml:space="preserve">M</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Observables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Submodel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reversible</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Min flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Max flux</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">reaction_name_4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Metabolism production</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[c]: (2) specie_2 ==&gt; biomass</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K cat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t xml:space="preserve">k_cat * specie_2[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_4[c] / k_m</t>
-  </si>
-  <si>
-    <t xml:space="preserve">backward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">specie_5[c] + specie_6[c]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coefficient</t>
   </si>
   <si>
     <t xml:space="preserve">Submodels</t>
@@ -626,12 +638,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -769,7 +781,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="14.8906882591093"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="3" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
@@ -861,10 +873,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="17.8906882591093"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="14.8906882591093"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="45.417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="18.2105263157895"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="25.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="15.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="46.5951417004049"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -876,39 +888,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="11" t="s">
         <v>81</v>
-      </c>
-      <c r="E1" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="G1" s="11" t="s">
-        <v>84</v>
       </c>
       <c r="H1" s="11" t="s">
         <v>13</v>
       </c>
       <c r="I1" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E2" s="12" t="n">
         <v>0</v>
@@ -920,16 +932,16 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E3" s="12" t="n">
         <v>0</v>
@@ -941,16 +953,16 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" s="12" t="n">
         <v>1</v>
@@ -962,16 +974,16 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E5" s="12" t="n">
         <v>0</v>
@@ -983,16 +995,16 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1018,60 +1030,60 @@
   </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="2" min="1" style="0" width="10.6032388663968"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="39.3117408906883"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="40.2753036437247"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="10.6032388663968"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D3" s="4" t="n">
         <v>2000</v>
@@ -1080,13 +1092,13 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="D4" s="4" t="n">
         <v>0.0003</v>
@@ -1097,13 +1109,13 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D5" s="4" t="n">
         <v>0.0003</v>
@@ -1114,13 +1126,13 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="4" t="n">
         <v>0.0003</v>
@@ -1145,17 +1157,72 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.1"/>
+  <cols>
+    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="15" width="24.3157894736842"/>
+    <col collapsed="false" hidden="false" max="1025" min="4" style="15" width="10.8178137651822"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C44" activeCellId="0" sqref="C44"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.1"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="15" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="15" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="15" width="21.2105263157895"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="15" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="15" width="10.497975708502"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="15" width="9.31983805668016"/>
@@ -1171,19 +1238,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>22</v>
+        <v>107</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F1" s="16" t="s">
         <v>13</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1214,61 +1281,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
-  <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
-  <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="15" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="15" width="23.6720647773279"/>
-    <col collapsed="false" hidden="false" max="1025" min="4" style="15" width="10.8178137651822"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1277,16 +1289,16 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="0" sqref="D7"/>
+      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="23.0323886639676"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.5991902834008"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="44.5627530364373"/>
     <col collapsed="false" hidden="false" max="4" min="3" style="2" width="9.10526315789474"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="13.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="49.165991902834"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="50.2388663967611"/>
     <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
@@ -1298,42 +1310,39 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1354,18 +1363,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -1373,12 +1382,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1398,19 +1404,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="1:1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="8.35627530364373"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="4" min="3" style="2" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="31.5991902834008"/>
-    <col collapsed="false" hidden="false" max="1025" min="6" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="32.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1023" min="5" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1421,7 +1428,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>115</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>116</v>
@@ -1433,10 +1440,10 @@
         <v>118</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>120</v>
@@ -1463,14 +1470,12 @@
         <v>127</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="AMJ1" s="0"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
+  <autoFilter ref="A1:D1"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1490,7 +1495,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1500,34 +1505,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>129</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>130</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>109</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1546,13 +1551,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.6032388663968"/>
   </cols>
@@ -1578,12 +1583,12 @@
         <v>16</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>18</v>
@@ -1591,15 +1596,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="0" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -1621,21 +1618,19 @@
   <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F8" activeCellId="0" sqref="F8"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="2" width="13.8178137651822"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="12.8542510121458"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.31983805668016"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1023" min="9" style="2" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.31983805668016"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="1021" min="7" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1022" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1646,51 +1641,41 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>21</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMH1" s="0"/>
+      <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
   </sheetData>
@@ -1709,20 +1694,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="1:3"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="2" width="5.1417004048583"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="2" width="17.5668016194332"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="45.0971659919028"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.8178137651822"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="17.8906882591093"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="13.3886639676113"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="46.3805668016194"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="2" width="10.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1023" min="6" style="2" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1733,54 +1719,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="4" t="n">
+        <v>4.58E-017</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="4" t="n">
-        <v>4.58E-017</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="4" t="n">
+        <v>1E-012</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="4" t="n">
-        <v>1E-012</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E3"/>
+  <autoFilter ref="A1:D3"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -1797,23 +1775,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J8"/>
+  <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.1"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="5" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="5" width="14.9959514170041"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="11.4615384615385"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="10.2834008097166"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="5" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="5" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="5" width="15.3198380566802"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="5" width="11.4615384615385"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="5" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="5" width="10.3886639676113"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="5" width="9.4251012145749"/>
+    <col collapsed="false" hidden="false" max="8" min="7" style="5" width="19.3886639676113"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="5" width="10.497975708502"/>
+    <col collapsed="false" hidden="false" max="1023" min="10" style="5" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1024" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" s="7" customFormat="true" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1824,195 +1803,172 @@
         <v>2</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>16</v>
+        <v>35</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G1" s="6" t="s">
-        <v>40</v>
-      </c>
       <c r="H1" s="6" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="I1" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>20</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="E2" s="5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F2" s="5" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" s="9"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>48</v>
+      <c r="E3" s="5" t="n">
+        <v>2</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>2</v>
-      </c>
-      <c r="G3" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I3" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="E4" s="5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="8"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="B5" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="F4" s="5" t="n">
-        <v>3</v>
-      </c>
-      <c r="G4" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
+      <c r="D5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="E5" s="9" t="n">
+        <v>4</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="8"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5" t="s">
+      <c r="B6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="8" t="n">
-        <v>4</v>
-      </c>
-      <c r="G5" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="8" t="s">
+      <c r="D6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="E6" s="9" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H6" s="8"/>
+    </row>
+    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="B7" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="8" t="n">
-        <v>5</v>
-      </c>
-      <c r="G6" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="8" t="s">
+      <c r="D7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F7" s="8" t="n">
+      <c r="E7" s="9" t="n">
         <v>6</v>
       </c>
-      <c r="G7" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>45</v>
+      <c r="F7" s="5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>1</v>
+        <v>59</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>10</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="G8" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>62</v>
+        <v>0</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J6"/>
+  <autoFilter ref="A1:I6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -2031,7 +1987,7 @@
   </sheetPr>
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
@@ -2041,8 +1997,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.4251012145749"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="6" min="1" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2053,115 +2009,115 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2193,95 +2149,95 @@
     <col collapsed="false" hidden="false" max="4" min="2" style="2" width="9.31983805668016"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="2" width="9.4251012145749"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="8" min="8" style="2" width="9.4251012145749"/>
-    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="9" style="2" width="19.3886639676113"/>
     <col collapsed="false" hidden="false" max="12" min="11" style="2" width="10.497975708502"/>
-    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.3522267206478"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="2" width="23.6720647773279"/>
     <col collapsed="false" hidden="false" max="1025" min="14" style="2" width="8.78542510121457"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="10" t="n">
         <v>0.000148</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="10" t="n">
         <v>0.0002</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="10" t="n">
         <v>0.0005</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="10" t="n">
         <v>0.0005</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="10" t="n">
         <v>0.001</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="10" t="n">
         <v>0.002</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2300,18 +2256,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2319,15 +2275,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F1" s="0" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2347,18 +2297,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.10526315789474"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -2366,12 +2316,9 @@
         <v>2</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="E1" s="0" t="s">
         <v>13</v>
       </c>
     </row>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -28,19 +28,19 @@
     <sheet name="References" sheetId="16" r:id="rId18"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$D$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="183">
   <si>
     <t>Id</t>
   </si>
@@ -185,76 +185,97 @@
     <t>ssa</t>
   </si>
   <si>
+    <t>Biological type</t>
+  </si>
+  <si>
+    <t>Physical type</t>
+  </si>
+  <si>
+    <t>Geometry</t>
+  </si>
+  <si>
+    <t>Parent compartment</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Initial volume, distribution</t>
+  </si>
+  <si>
+    <t>Initial volume, mean</t>
+  </si>
+  <si>
+    <t>Initial volume, standard deviation</t>
+  </si>
+  <si>
+    <t>Volume units</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Density units</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>mass * density</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>init_mass / init_volume</t>
+  </si>
+  <si>
+    <t>g ml^-1</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
     <t>Type</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>physical_3d</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
   </si>
   <si>
     <t>specie_1</t>
@@ -610,12 +631,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -644,8 +665,111 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -660,22 +784,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -694,99 +806,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,19 +828,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -831,103 +864,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -945,7 +888,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -957,7 +930,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -969,25 +1002,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1010,17 +1031,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,6 +1064,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1051,35 +1086,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1102,144 +1108,159 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1279,10 +1300,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1844,22 +1865,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1876,16 +1897,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
@@ -1897,16 +1918,16 @@
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
@@ -1918,16 +1939,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -1939,16 +1960,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -1960,16 +1981,16 @@
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -2017,19 +2038,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2046,88 +2067,88 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="G3" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="F5" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G5" t="s">
         <v>139</v>
-      </c>
-      <c r="G5" t="s">
-        <v>132</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2135,22 +2156,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2194,13 +2215,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2217,16 +2238,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -2263,13 +2284,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2327,16 +2348,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>18</v>
@@ -2394,16 +2415,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2420,106 +2441,106 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2559,10 +2580,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2613,28 +2634,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2687,46 +2708,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2896,36 +2917,36 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMM3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="5.14166666666667" style="2"/>
-    <col min="2" max="2" width="17.8916666666667" style="2"/>
-    <col min="3" max="3" width="13.3916666666667" style="2"/>
-    <col min="4" max="4" width="12.75" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.8166666666667" style="2"/>
-    <col min="6" max="1026" width="8.78333333333333" style="2"/>
-    <col min="1027" max="1028" width="8.78333333333333" style="6"/>
-    <col min="1029" max="16384" width="9" style="6"/>
+    <col min="2" max="3" width="17.8916666666667" style="2"/>
+    <col min="4" max="5" width="13.3916666666667" style="2"/>
+    <col min="6" max="7" width="12.75" style="2" customWidth="1"/>
+    <col min="8" max="8" width="10.8166666666667" style="2"/>
+    <col min="9" max="1029" width="8.78333333333333" style="2"/>
+    <col min="1030" max="1031" width="8.78333333333333" style="6"/>
+    <col min="1032" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1027">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="5" t="s">
         <v>36</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -2950,91 +2971,115 @@
         <v>43</v>
       </c>
       <c r="K1" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="N1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMM1" s="6"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:13">
+      <c r="AMP1" s="6"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="17" t="s">
-        <v>46</v>
+        <v>48</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>49</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="7">
+        <v>51</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="7">
         <v>4.58e-17</v>
       </c>
-      <c r="G2" s="2">
+      <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="E3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:13">
-      <c r="A3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="I3" s="2">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
+      <c r="J3" s="2">
         <v>0</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>51</v>
+      <c r="K3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="M3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D3">
+  <autoFilter ref="A1:G3">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3079,19 +3124,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3109,13 +3154,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3124,19 +3169,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3145,19 +3190,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3166,19 +3211,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3187,19 +3232,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3208,19 +3253,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3229,18 +3274,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -3249,7 +3294,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="7:7">
@@ -3293,13 +3338,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3316,128 +3361,128 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3487,19 +3532,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3516,104 +3561,104 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E2" s="14">
         <v>0.000148</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E3" s="14">
         <v>0.0002</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E4" s="14">
         <v>0.0005</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E5" s="14">
         <v>0.0005</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E6" s="14">
         <v>0.001</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" s="14">
         <v>0.002</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -3650,10 +3695,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3705,10 +3750,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="399" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="185">
   <si>
     <t>Id</t>
   </si>
@@ -431,7 +431,7 @@
     <t>Flux max</t>
   </si>
   <si>
-    <t>Flux units</t>
+    <t>Flux bound units</t>
   </si>
   <si>
     <t>reaction_1</t>
@@ -522,6 +522,12 @@
   </si>
   <si>
     <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
   </si>
   <si>
     <t>dfba-obj-submodel_1</t>
@@ -631,12 +637,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -665,13 +671,36 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -679,7 +708,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -693,57 +722,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -761,38 +751,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,7 +768,52 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -828,7 +834,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -840,25 +906,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,145 +1014,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1031,11 +1037,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1044,7 +1056,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1066,26 +1078,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1107,9 +1102,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1128,139 +1125,148 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1300,10 +1306,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1844,7 +1850,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -2192,14 +2198,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F1" sqref="F$1:F$1048576"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2207,7 +2213,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2224,21 +2230,27 @@
         <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:5">
+    <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2247,7 +2259,13 @@
         <v>86</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2290,7 +2308,7 @@
         <v>90</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2348,13 +2366,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>101</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>90</v>
@@ -2418,10 +2436,10 @@
         <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>90</v>
@@ -2441,10 +2459,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>137</v>
@@ -2453,46 +2471,46 @@
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>159</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
@@ -2503,38 +2521,38 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
@@ -2634,7 +2652,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>90</v>
@@ -2643,19 +2661,19 @@
         <v>66</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2708,46 +2726,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>40</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2919,7 +2937,7 @@
   <sheetPr/>
   <dimension ref="A1:AMP3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="11"/>
+    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="192">
   <si>
     <t>Id</t>
   </si>
@@ -197,424 +197,445 @@
     <t>Parent compartment</t>
   </si>
   <si>
+    <t>Mass units</t>
+  </si>
+  <si>
+    <t>Initial volume distribution</t>
+  </si>
+  <si>
+    <t>Initial volume mean</t>
+  </si>
+  <si>
+    <t>Initial volume standard deviation</t>
+  </si>
+  <si>
+    <t>Initial volume units</t>
+  </si>
+  <si>
+    <t>Initial density</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>Cell</t>
+  </si>
+  <si>
+    <t>cellular</t>
+  </si>
+  <si>
+    <t>fluid</t>
+  </si>
+  <si>
+    <t>3d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>normal</t>
+  </si>
+  <si>
+    <t>l</t>
+  </si>
+  <si>
+    <t>density_c</t>
+  </si>
+  <si>
+    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
+  </si>
+  <si>
+    <t>Extracellular space</t>
+  </si>
+  <si>
+    <t>extracellular</t>
+  </si>
+  <si>
+    <t>density_e</t>
+  </si>
+  <si>
+    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>Empirical formula</t>
+  </si>
+  <si>
+    <t>Molecular weight</t>
+  </si>
+  <si>
+    <t>Charge</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>specie_1</t>
+  </si>
+  <si>
+    <t>specie_name_1</t>
+  </si>
+  <si>
+    <t>CO</t>
+  </si>
+  <si>
+    <t>pseudo_species</t>
+  </si>
+  <si>
+    <t>specie_2</t>
+  </si>
+  <si>
+    <t>specie_name_2</t>
+  </si>
+  <si>
+    <t>NONa2</t>
+  </si>
+  <si>
+    <t>specie_3</t>
+  </si>
+  <si>
+    <t>specie_name_3</t>
+  </si>
+  <si>
+    <t>N2O2Na4</t>
+  </si>
+  <si>
+    <t>specie_4</t>
+  </si>
+  <si>
+    <t>specie_name_4</t>
+  </si>
+  <si>
+    <t>N5O5Na10</t>
+  </si>
+  <si>
+    <t>specie_5</t>
+  </si>
+  <si>
+    <t>specie_name_5</t>
+  </si>
+  <si>
+    <t>N2O2</t>
+  </si>
+  <si>
+    <t>specie_6</t>
+  </si>
+  <si>
+    <t>specie_name_6</t>
+  </si>
+  <si>
+    <t>NONa10</t>
+  </si>
+  <si>
+    <t>biomass</t>
+  </si>
+  <si>
+    <t>metabolite</t>
+  </si>
+  <si>
+    <t>Species type</t>
+  </si>
+  <si>
+    <t>Compartment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>specie_1[e]</t>
+  </si>
+  <si>
+    <t>molecule</t>
+  </si>
+  <si>
+    <t>specie_2[e]</t>
+  </si>
+  <si>
+    <t>specie_2[c]</t>
+  </si>
+  <si>
+    <t>specie_4[c]</t>
+  </si>
+  <si>
+    <t>specie_5[c]</t>
+  </si>
+  <si>
+    <t>specie_6[c]</t>
+  </si>
+  <si>
+    <t>specie_1[c]</t>
+  </si>
+  <si>
+    <t>specie_3[c]</t>
+  </si>
+  <si>
+    <t>biomass[c]</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_1[e]</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[e]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_2[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_4[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_5[c]</t>
+  </si>
+  <si>
+    <t>dist-init-conc-specie_6[c]</t>
+  </si>
+  <si>
+    <t>Expression</t>
+  </si>
+  <si>
+    <t>volume_c</t>
+  </si>
+  <si>
+    <t>c / density_c</t>
+  </si>
+  <si>
+    <t>volume_e</t>
+  </si>
+  <si>
+    <t>e / density_c</t>
+  </si>
+  <si>
+    <t>Submodel</t>
+  </si>
+  <si>
+    <t>Participants</t>
+  </si>
+  <si>
+    <t>Reversible</t>
+  </si>
+  <si>
+    <t>Flux min</t>
+  </si>
+  <si>
+    <t>Flux max</t>
+  </si>
+  <si>
+    <t>Flux bound units</t>
+  </si>
+  <si>
+    <t>reaction_1</t>
+  </si>
+  <si>
+    <t>reaction_name_1</t>
+  </si>
+  <si>
+    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_2</t>
+  </si>
+  <si>
+    <t>reaction_name_2</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
+  </si>
+  <si>
+    <t>reaction_3</t>
+  </si>
+  <si>
+    <t>reaction_name_3</t>
+  </si>
+  <si>
+    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
+  </si>
+  <si>
+    <t>reaction_4</t>
+  </si>
+  <si>
+    <t>reaction_name_4</t>
+  </si>
+  <si>
+    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
+  </si>
+  <si>
+    <t>Metabolism production</t>
+  </si>
+  <si>
+    <t>[c]: (2) specie_2 ==&gt; biomass</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>Direction</t>
+  </si>
+  <si>
+    <t>reaction_1-forward</t>
+  </si>
+  <si>
+    <t>forward</t>
+  </si>
+  <si>
+    <t>other</t>
+  </si>
+  <si>
+    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
+  </si>
+  <si>
+    <t>s^-1</t>
+  </si>
+  <si>
+    <t>reaction_2-forward</t>
+  </si>
+  <si>
+    <t>k_cat_2_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>reaction_3-forward</t>
+  </si>
+  <si>
+    <t>k_cat_3_for * specie_4[c] / (specie_4[c] + K_m_4 * Avogadro * volume_c)</t>
+  </si>
+  <si>
+    <t>reaction_3-backward</t>
+  </si>
+  <si>
+    <t>backward</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
+  </si>
+  <si>
+    <t>reaction_4-forward</t>
+  </si>
+  <si>
+    <t>k_cat_4_for * specie_2[c]</t>
+  </si>
+  <si>
+    <t>Reaction rate units</t>
+  </si>
+  <si>
+    <t>Coefficient units</t>
+  </si>
+  <si>
+    <t>dfba-obj-submodel_1</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
+    <t>Cell size units</t>
+  </si>
+  <si>
+    <t>dFBA net reaction</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Standard error</t>
+  </si>
+  <si>
+    <t>fractionDryWeight</t>
+  </si>
+  <si>
+    <t>Fraction of cell mass which is non water</t>
+  </si>
+  <si>
+    <t>[Ref-0006]</t>
+  </si>
+  <si>
+    <t>k_cat_1_for</t>
+  </si>
+  <si>
+    <t>k_cat</t>
+  </si>
+  <si>
+    <t>molecule^-1 s^-1</t>
+  </si>
+  <si>
+    <t>k_cat_2_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_for</t>
+  </si>
+  <si>
+    <t>k_cat_3_rev</t>
+  </si>
+  <si>
+    <t>k_cat_4_for</t>
+  </si>
+  <si>
+    <t>K_m_4</t>
+  </si>
+  <si>
+    <t>K_m</t>
+  </si>
+  <si>
+    <t>g l^-1</t>
+  </si>
+  <si>
+    <t>Avogadro</t>
+  </si>
+  <si>
+    <t>molecule mol^-1</t>
+  </si>
+  <si>
+    <t>Taxon</t>
+  </si>
+  <si>
+    <t>Genetic variant</t>
+  </si>
+  <si>
+    <t>Temperature (C)</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
+    <t>Growth media</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Editor</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Publication</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>Series</t>
+  </si>
+  <si>
     <t>Volume</t>
-  </si>
-  <si>
-    <t>Initial volume, distribution</t>
-  </si>
-  <si>
-    <t>Initial volume, mean</t>
-  </si>
-  <si>
-    <t>Initial volume, standard deviation</t>
-  </si>
-  <si>
-    <t>Volume units</t>
-  </si>
-  <si>
-    <t>Density</t>
-  </si>
-  <si>
-    <t>Density units</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>Cell</t>
-  </si>
-  <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>mass * density</t>
-  </si>
-  <si>
-    <t>normal</t>
-  </si>
-  <si>
-    <t>l</t>
-  </si>
-  <si>
-    <t>init_mass / init_volume</t>
-  </si>
-  <si>
-    <t>g ml^-1</t>
-  </si>
-  <si>
-    <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
-  </si>
-  <si>
-    <t>Extracellular space</t>
-  </si>
-  <si>
-    <t>extracellular</t>
-  </si>
-  <si>
-    <t>Typical density of Mycoplasma pneumoniae cells in culture is 1e-9 cells/mL [Ref-0002].</t>
-  </si>
-  <si>
-    <t>Structure</t>
-  </si>
-  <si>
-    <t>Empirical formula</t>
-  </si>
-  <si>
-    <t>Molecular weight</t>
-  </si>
-  <si>
-    <t>Charge</t>
-  </si>
-  <si>
-    <t>Type</t>
-  </si>
-  <si>
-    <t>specie_1</t>
-  </si>
-  <si>
-    <t>specie_name_1</t>
-  </si>
-  <si>
-    <t>CO</t>
-  </si>
-  <si>
-    <t>pseudo_species</t>
-  </si>
-  <si>
-    <t>specie_2</t>
-  </si>
-  <si>
-    <t>specie_name_2</t>
-  </si>
-  <si>
-    <t>NONa2</t>
-  </si>
-  <si>
-    <t>specie_3</t>
-  </si>
-  <si>
-    <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N2O2Na4</t>
-  </si>
-  <si>
-    <t>specie_4</t>
-  </si>
-  <si>
-    <t>specie_name_4</t>
-  </si>
-  <si>
-    <t>N5O5Na10</t>
-  </si>
-  <si>
-    <t>specie_5</t>
-  </si>
-  <si>
-    <t>specie_name_5</t>
-  </si>
-  <si>
-    <t>N2O2</t>
-  </si>
-  <si>
-    <t>specie_6</t>
-  </si>
-  <si>
-    <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>NONa10</t>
-  </si>
-  <si>
-    <t>biomass</t>
-  </si>
-  <si>
-    <t>metabolite</t>
-  </si>
-  <si>
-    <t>Species type</t>
-  </si>
-  <si>
-    <t>Compartment</t>
-  </si>
-  <si>
-    <t>Units</t>
-  </si>
-  <si>
-    <t>specie_1[e]</t>
-  </si>
-  <si>
-    <t>molecule</t>
-  </si>
-  <si>
-    <t>specie_2[e]</t>
-  </si>
-  <si>
-    <t>specie_2[c]</t>
-  </si>
-  <si>
-    <t>specie_4[c]</t>
-  </si>
-  <si>
-    <t>specie_5[c]</t>
-  </si>
-  <si>
-    <t>specie_6[c]</t>
-  </si>
-  <si>
-    <t>specie_1[c]</t>
-  </si>
-  <si>
-    <t>specie_3[c]</t>
-  </si>
-  <si>
-    <t>biomass[c]</t>
-  </si>
-  <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Distribution</t>
-  </si>
-  <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Standard deviation</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_1[e]</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[e]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_2[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_4[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_5[c]</t>
-  </si>
-  <si>
-    <t>dist-init-conc-specie_6[c]</t>
-  </si>
-  <si>
-    <t>Expression</t>
-  </si>
-  <si>
-    <t>Submodel</t>
-  </si>
-  <si>
-    <t>Participants</t>
-  </si>
-  <si>
-    <t>Reversible</t>
-  </si>
-  <si>
-    <t>Flux min</t>
-  </si>
-  <si>
-    <t>Flux max</t>
-  </si>
-  <si>
-    <t>Flux bound units</t>
-  </si>
-  <si>
-    <t>reaction_1</t>
-  </si>
-  <si>
-    <t>reaction_name_1</t>
-  </si>
-  <si>
-    <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_2</t>
-  </si>
-  <si>
-    <t>reaction_name_2</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; specie_3</t>
-  </si>
-  <si>
-    <t>reaction_3</t>
-  </si>
-  <si>
-    <t>reaction_name_3</t>
-  </si>
-  <si>
-    <t>[c]: specie_2 + (2) specie_3 ==&gt; specie_4</t>
-  </si>
-  <si>
-    <t>reaction_4</t>
-  </si>
-  <si>
-    <t>reaction_name_4</t>
-  </si>
-  <si>
-    <t>[c]: specie_4 ==&gt; (2) specie_5 + specie_6</t>
-  </si>
-  <si>
-    <t>Metabolism production</t>
-  </si>
-  <si>
-    <t>[c]: (2) specie_2 ==&gt; biomass</t>
-  </si>
-  <si>
-    <t>Reaction</t>
-  </si>
-  <si>
-    <t>Direction</t>
-  </si>
-  <si>
-    <t>reaction_1-forward</t>
-  </si>
-  <si>
-    <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
-  </si>
-  <si>
-    <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
-  </si>
-  <si>
-    <t>reaction_2-forward</t>
-  </si>
-  <si>
-    <t>k_cat_2_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>reaction_3-forward</t>
-  </si>
-  <si>
-    <t>k_cat_3_for * specie_4[c] / (specie_4[c] + K_m_4)</t>
-  </si>
-  <si>
-    <t>reaction_3-backward</t>
-  </si>
-  <si>
-    <t>backward</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev * (specie_5[c] + specie_6[c])</t>
-  </si>
-  <si>
-    <t>reaction_4-forward</t>
-  </si>
-  <si>
-    <t>k_cat_4_for * specie_2[c]</t>
-  </si>
-  <si>
-    <t>Reaction rate units</t>
-  </si>
-  <si>
-    <t>Coefficient units</t>
-  </si>
-  <si>
-    <t>dfba-obj-submodel_1</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
-    <t>Cell size units</t>
-  </si>
-  <si>
-    <t>dFBA net reaction</t>
-  </si>
-  <si>
-    <t>Value</t>
-  </si>
-  <si>
-    <t>Standard error</t>
-  </si>
-  <si>
-    <t>fractionDryWeight</t>
-  </si>
-  <si>
-    <t>Fraction of cell mass which is non water</t>
-  </si>
-  <si>
-    <t>[Ref-0006]</t>
-  </si>
-  <si>
-    <t>k_cat_1_for</t>
-  </si>
-  <si>
-    <t>k_cat</t>
-  </si>
-  <si>
-    <t>molecule^-1 s^-1</t>
-  </si>
-  <si>
-    <t>k_cat_2_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_for</t>
-  </si>
-  <si>
-    <t>k_cat_3_rev</t>
-  </si>
-  <si>
-    <t>k_cat_4_for</t>
-  </si>
-  <si>
-    <t>K_m_4</t>
-  </si>
-  <si>
-    <t>K_m</t>
-  </si>
-  <si>
-    <t>Taxon</t>
-  </si>
-  <si>
-    <t>Genetic variant</t>
-  </si>
-  <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>Growth media</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Editor</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Publication</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>Series</t>
   </si>
   <si>
     <t>Number</t>
@@ -637,11 +658,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -671,14 +692,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -691,9 +704,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -707,9 +750,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -722,55 +764,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -790,15 +788,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,12 +810,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -840,43 +861,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,7 +873,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,7 +891,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,13 +909,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,13 +981,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -954,67 +1035,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1037,17 +1058,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1057,6 +1078,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1079,23 +1115,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,163 +1155,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1306,10 +1327,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1871,22 +1892,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>18</v>
@@ -1903,16 +1924,16 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
@@ -1924,16 +1945,16 @@
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
@@ -1945,16 +1966,16 @@
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
@@ -1966,16 +1987,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:9">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
@@ -1987,16 +2008,16 @@
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
@@ -2022,7 +2043,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F22" sqref="F22"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2031,7 +2052,7 @@
     <col min="3" max="3" width="9.125" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.6" style="2"/>
     <col min="5" max="5" width="4.875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="41.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="2" customWidth="1"/>
     <col min="7" max="1025" width="10.6" style="2"/>
     <col min="1026" max="16384" width="9" style="2"/>
   </cols>
@@ -2044,19 +2065,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2073,88 +2094,88 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="G3" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="G4" t="s">
         <v>142</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="G4" t="s">
-        <v>139</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2162,22 +2183,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2200,7 +2221,7 @@
   <sheetPr/>
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2221,19 +2242,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2250,19 +2271,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2302,13 +2323,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2366,16 +2387,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>18</v>
@@ -2403,17 +2424,17 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomRight" activeCell="A11" sqref="A11:F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="23.35" style="2"/>
     <col min="2" max="2" width="44.5666666666667" style="2"/>
@@ -2433,16 +2454,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2459,106 +2480,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1100</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1000</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D11" s="7">
+        <v>6.02214075862e+23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2598,10 +2661,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2652,28 +2715,28 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2726,46 +2789,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>40</v>
+        <v>186</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2935,14 +2998,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMP3"/>
+  <dimension ref="A1:AMO3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -2952,12 +3015,12 @@
     <col min="4" max="5" width="13.3916666666667" style="2"/>
     <col min="6" max="7" width="12.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.8166666666667" style="2"/>
-    <col min="9" max="1029" width="8.78333333333333" style="2"/>
-    <col min="1030" max="1031" width="8.78333333333333" style="6"/>
-    <col min="1032" max="16384" width="9" style="6"/>
+    <col min="9" max="1028" width="8.78333333333333" style="2"/>
+    <col min="1029" max="1030" width="8.78333333333333" style="6"/>
+    <col min="1031" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1029">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -2995,46 +3058,43 @@
         <v>45</v>
       </c>
       <c r="M1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="AMO1" s="6"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:15">
+      <c r="A2" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="N1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="AMP1" s="6"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3043,39 +3103,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="M2" s="2" t="s">
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3084,16 +3141,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -3142,19 +3196,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>66</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3172,13 +3226,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3187,19 +3241,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3208,19 +3262,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3229,19 +3283,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>78</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3250,19 +3304,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3271,19 +3325,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="D7" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>85</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3292,18 +3346,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -3312,7 +3366,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="7:7">
@@ -3356,13 +3410,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>89</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3379,128 +3433,128 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -3550,19 +3604,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>104</v>
-      </c>
       <c r="G1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3579,104 +3633,104 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" s="14">
         <v>0.000148</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" s="14">
         <v>0.0002</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E4" s="14">
         <v>0.0005</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E5" s="14">
         <v>0.0005</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E6" s="14">
         <v>0.001</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E7" s="14">
         <v>0.002</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3713,10 +3767,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3744,19 +3798,21 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I31" sqref="I31"/>
+      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1022" width="9.10833333333333" style="2"/>
+    <col min="1" max="2" width="9.10833333333333" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="1022" width="9.10833333333333" style="2"/>
     <col min="1023" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -3768,10 +3824,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -3784,6 +3840,28 @@
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="13965" tabRatio="993" activeTab="8"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="193">
   <si>
     <t>Id</t>
   </si>
@@ -434,6 +434,9 @@
     <t>Reversible</t>
   </si>
   <si>
+    <t>Rate units</t>
+  </si>
+  <si>
     <t>Flux min</t>
   </si>
   <si>
@@ -452,6 +455,9 @@
     <t>specie_1[e] + specie_2[e] ==&gt; specie_1[c] + specie_2[c]</t>
   </si>
   <si>
+    <t>s^-1</t>
+  </si>
+  <si>
     <t>reaction_2</t>
   </si>
   <si>
@@ -501,9 +507,6 @@
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
-  </si>
-  <si>
-    <t>s^-1</t>
   </si>
   <si>
     <t>reaction_2-forward</t>
@@ -659,11 +662,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -692,11 +695,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -704,9 +702,97 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -720,105 +806,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -834,7 +823,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -861,7 +864,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -873,19 +930,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -897,7 +960,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -909,7 +984,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -921,25 +1020,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -951,91 +1038,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1058,17 +1061,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1077,7 +1074,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1098,34 +1110,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1147,147 +1152,145 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1864,14 +1867,14 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -1880,11 +1883,11 @@
     <col min="2" max="2" width="25.925" style="2"/>
     <col min="3" max="3" width="15.2083333333333" style="2"/>
     <col min="4" max="4" width="46.5916666666667" style="2"/>
-    <col min="5" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="5" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1910,117 +1913,135 @@
         <v>121</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
-      <c r="F2" s="12"/>
+      <c r="F2" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
       </c>
-      <c r="F3" s="12"/>
+      <c r="F3" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
-      <c r="F4" s="12"/>
+      <c r="F4" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
+      <c r="J4" s="12"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>33</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
-      <c r="F5" s="12"/>
+      <c r="F5" s="12" t="s">
+        <v>126</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
       <c r="I5" s="12"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:5">
+      <c r="J5" s="12"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
         <v>85</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>30</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2065,10 +2086,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>65</v>
@@ -2094,88 +2115,88 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G4" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2183,22 +2204,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G6" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2251,10 +2272,10 @@
         <v>89</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2271,7 +2292,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>30</v>
@@ -2280,10 +2301,10 @@
         <v>85</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2329,7 +2350,7 @@
         <v>89</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2387,13 +2408,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>100</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>89</v>
@@ -2457,10 +2478,10 @@
         <v>65</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>89</v>
@@ -2480,100 +2501,100 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
@@ -2587,13 +2608,13 @@
         <v>55</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -2601,31 +2622,31 @@
         <v>59</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F8">
+  <autoFilter ref="A1:F11">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2715,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>89</v>
@@ -2724,19 +2745,19 @@
         <v>65</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
@@ -2789,46 +2810,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>65</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3800,12 +3821,12 @@
   <sheetPr/>
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2:C3"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,77 +5,78 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="9"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
     <sheet name="Taxon" sheetId="2" r:id="rId2"/>
-    <sheet name="Submodels" sheetId="3" r:id="rId3"/>
-    <sheet name="Compartments" sheetId="4" r:id="rId4"/>
-    <sheet name="Species types" sheetId="5" r:id="rId5"/>
-    <sheet name="Species" sheetId="6" r:id="rId6"/>
-    <sheet name="Initial species concentrations" sheetId="7" r:id="rId7"/>
-    <sheet name="Observables" sheetId="8" r:id="rId8"/>
-    <sheet name="Functions" sheetId="9" r:id="rId9"/>
-    <sheet name="Reactions" sheetId="10" r:id="rId10"/>
-    <sheet name="Rate laws" sheetId="11" r:id="rId11"/>
-    <sheet name="dFBA objectives" sheetId="18" r:id="rId12"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId13"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId14"/>
-    <sheet name="Parameters" sheetId="14" r:id="rId15"/>
-    <sheet name="Stop conditions" sheetId="15" r:id="rId16"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId17"/>
-    <sheet name="References" sheetId="16" r:id="rId18"/>
+    <sheet name="Environment" sheetId="20" r:id="rId3"/>
+    <sheet name="Submodels" sheetId="3" r:id="rId4"/>
+    <sheet name="Compartments" sheetId="4" r:id="rId5"/>
+    <sheet name="Species types" sheetId="5" r:id="rId6"/>
+    <sheet name="Species" sheetId="6" r:id="rId7"/>
+    <sheet name="Initial species concentrations" sheetId="7" r:id="rId8"/>
+    <sheet name="Observables" sheetId="8" r:id="rId9"/>
+    <sheet name="Functions" sheetId="9" r:id="rId10"/>
+    <sheet name="Reactions" sheetId="10" r:id="rId11"/>
+    <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
+    <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
+    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="Parameters" sheetId="14" r:id="rId16"/>
+    <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
+    <sheet name="Evidence" sheetId="19" r:id="rId18"/>
+    <sheet name="References" sheetId="16" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Species types'!$A$1:$I$8</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">Reactions!$A$1:$D$6</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">References!$A$1:$D$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2">Submodels!#REF!</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="3">Compartments!$A$1:$G$3</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="9">Reactions!$A$1:$D$5</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="14">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="17">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="10">Reactions!$A$1:$D$5</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="197">
   <si>
     <t>Id</t>
   </si>
@@ -143,7 +144,7 @@
     <t>Updated</t>
   </si>
   <si>
-    <t>ASP_test</t>
+    <t>taxon</t>
   </si>
   <si>
     <t>Test model for TestExecutableModel</t>
@@ -161,6 +162,21 @@
     <t>References</t>
   </si>
   <si>
+    <t>env</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Temperature units</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -612,9 +628,6 @@
   </si>
   <si>
     <t>Temperature (C)</t>
-  </si>
-  <si>
-    <t>pH</t>
   </si>
   <si>
     <t>Growth media</t>
@@ -661,12 +674,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -695,8 +708,9 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -708,6 +722,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -715,7 +743,30 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -730,32 +781,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -769,18 +803,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -799,7 +834,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -807,37 +850,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -858,7 +871,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -870,7 +883,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,13 +913,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -906,19 +949,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -930,31 +961,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,13 +979,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -990,13 +997,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1008,25 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1038,7 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1061,20 +1074,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1090,21 +1100,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1126,26 +1121,35 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1158,143 +1162,152 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1341,6 +1354,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1808,25 +1824,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="17"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="18"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="17"/>
+      <c r="B10" s="18"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="18" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1834,25 +1850,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="17"/>
+      <c r="B12" s="18"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="17"/>
+      <c r="B13" s="18"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="17"/>
+      <c r="B14" s="18"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="17"/>
+      <c r="B15" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1867,9 +1883,88 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="2" width="9.10833333333333" style="2"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="1022" width="9.10833333333333" style="2"/>
+    <col min="1023" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:M6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -1895,31 +1990,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -1930,22 +2025,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -1954,22 +2049,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -1978,22 +2073,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -2002,22 +2097,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -2026,22 +2121,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +2149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
@@ -2086,25 +2181,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2115,88 +2210,88 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="G2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G3" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="C4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>141</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G4" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="G5" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2204,22 +2299,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="G6" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2237,7 +2332,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K2"/>
@@ -2263,25 +2358,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>111</v>
-      </c>
       <c r="E1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2292,19 +2387,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2316,7 +2411,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I1"/>
@@ -2344,19 +2439,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2375,7 +2470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J1"/>
@@ -2408,22 +2503,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>158</v>
+        <v>163</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>19</v>
@@ -2442,7 +2537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J11"/>
@@ -2475,22 +2570,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>160</v>
+        <v>165</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2501,148 +2596,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>163</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>167</v>
+        <v>172</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>169</v>
+        <v>174</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>165</v>
+        <v>170</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
@@ -2655,7 +2750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -2682,16 +2777,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2710,7 +2805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:N1"/>
@@ -2736,34 +2831,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>179</v>
+        <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -2778,7 +2873,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2810,46 +2905,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2877,7 +2972,7 @@
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C16" sqref="$A1:$XFD1048576"/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
@@ -2936,6 +3031,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="2"/>
+    <col min="1016" max="16384" width="9" style="17"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="2">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:1">
+      <c r="A7" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ3"/>
@@ -2969,13 +3141,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -2989,24 +3161,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -3016,7 +3188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMO3"/>
@@ -3049,40 +3221,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3094,28 +3266,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3124,36 +3296,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>53</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3162,13 +3334,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3181,7 +3353,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ14"/>
@@ -3217,25 +3389,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3247,13 +3419,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3262,19 +3434,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3283,19 +3455,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3304,19 +3476,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3325,19 +3497,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3346,19 +3518,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="H6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3367,18 +3539,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -3387,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="7:7">
@@ -3403,7 +3575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I10"/>
@@ -3431,19 +3603,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3454,128 +3626,128 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3760,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:K7"/>
@@ -3625,25 +3797,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3654,104 +3826,104 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E2" s="14">
         <v>0.000148</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E3" s="14">
         <v>0.0002</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E4" s="14">
         <v>0.0005</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E5" s="14">
         <v>0.0005</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E6" s="14">
         <v>0.001</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="E7" s="14">
         <v>0.002</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -3761,7 +3933,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H1"/>
@@ -3788,101 +3960,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight"/>
-      <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="2" width="9.10833333333333" style="2"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="1022" width="9.10833333333333" style="2"/>
-    <col min="1023" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,8 @@
     <sheet name="Reactions" sheetId="10" r:id="rId11"/>
     <sheet name="Rate laws" sheetId="11" r:id="rId12"/>
     <sheet name="dFBA objectives" sheetId="18" r:id="rId13"/>
-    <sheet name="dFBA net reactions" sheetId="12" r:id="rId14"/>
-    <sheet name="dFBA net species" sheetId="13" r:id="rId15"/>
+    <sheet name="dFBA objective reactions" sheetId="12" r:id="rId14"/>
+    <sheet name="dFBA objective species" sheetId="13" r:id="rId15"/>
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
@@ -567,7 +567,7 @@
     <t>Cell size units</t>
   </si>
   <si>
-    <t>dFBA net reaction</t>
+    <t>dFBA objective reaction</t>
   </si>
   <si>
     <t>Value</t>
@@ -674,12 +674,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -716,52 +716,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -773,34 +731,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -811,23 +751,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -849,8 +774,83 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,7 +871,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,13 +907,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -901,43 +961,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,7 +979,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -961,31 +1003,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -997,7 +1015,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,31 +1033,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1051,7 +1051,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,55 +1074,21 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1145,11 +1111,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1163,146 +1142,167 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1343,10 +1343,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2475,12 +2475,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3035,7 +3035,7 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="E9" sqref="E9"/>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28200" windowHeight="14070" tabRatio="993" activeTab="14"/>
+    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="198">
   <si>
     <t>Id</t>
   </si>
@@ -177,6 +177,12 @@
     <t>pH</t>
   </si>
   <si>
+    <t>pH units</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
+  </si>
+  <si>
     <t>Algorithm</t>
   </si>
   <si>
@@ -559,9 +565,6 @@
   </si>
   <si>
     <t>dfba-obj-submodel_1</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
   </si>
   <si>
     <t>Cell size units</t>
@@ -674,11 +677,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
@@ -716,6 +719,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -731,6 +742,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -738,9 +754,78 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -759,80 +844,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -840,17 +851,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -871,19 +874,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,19 +946,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -919,49 +988,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -973,55 +1012,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,13 +1030,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1074,6 +1077,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1085,11 +1103,48 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1111,195 +1166,143 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1343,10 +1346,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1909,16 +1912,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -1929,24 +1932,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1990,31 +1993,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
         <v>19</v>
@@ -2025,22 +2028,22 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E2" s="12">
         <v>0</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G2" s="12"/>
       <c r="H2" s="12"/>
@@ -2049,22 +2052,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E3" s="12">
         <v>0</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
@@ -2073,22 +2076,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E4" s="12">
         <v>1</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="12"/>
@@ -2097,22 +2100,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E5" s="12">
         <v>0</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="12"/>
@@ -2121,22 +2124,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2181,25 +2184,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2210,88 +2213,88 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
       <c r="A3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>147</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
       <c r="A4" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
     </row>
     <row r="5" customHeight="1" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -2299,22 +2302,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -2358,25 +2361,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -2387,19 +2390,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2439,19 +2442,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -2475,12 +2478,12 @@
   <sheetPr/>
   <dimension ref="A1:J1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2503,22 +2506,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="9" t="s">
         <v>19</v>
@@ -2570,22 +2573,22 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
         <v>19</v>
@@ -2596,148 +2599,148 @@
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>161</v>
+        <v>34</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D4" s="7">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D5" s="7">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D6" s="7">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D7" s="7">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D8" s="7">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D11" s="7">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2777,16 +2780,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>19</v>
@@ -2831,34 +2834,34 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>32</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="L1" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M1" s="5" t="s">
         <v>19</v>
@@ -2905,46 +2908,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3033,15 +3036,15 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
@@ -3086,18 +3089,26 @@
         <v>7.75</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:1">
+    <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>33</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:1">
       <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3141,13 +3152,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>19</v>
@@ -3161,24 +3172,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -3221,40 +3232,40 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
         <v>19</v>
@@ -3266,28 +3277,28 @@
     </row>
     <row r="2" customHeight="1" spans="1:15">
       <c r="A2" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I2" s="7">
         <v>4.58e-17</v>
@@ -3296,36 +3307,36 @@
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
       <c r="A3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3334,13 +3345,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
@@ -3389,25 +3400,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3419,13 +3430,13 @@
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3434,19 +3445,19 @@
         <v>0</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3455,19 +3466,19 @@
         <v>0</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3476,19 +3487,19 @@
         <v>0</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3497,19 +3508,19 @@
         <v>0</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3518,19 +3529,19 @@
         <v>0</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3539,18 +3550,18 @@
         <v>0</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -3559,7 +3570,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="7:7">
@@ -3603,19 +3614,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>19</v>
@@ -3626,128 +3637,128 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -3797,25 +3808,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>19</v>
@@ -3826,104 +3837,104 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E2" s="14">
         <v>0.000148</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E3" s="14">
         <v>0.0002</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E4" s="14">
         <v>0.0005</v>
       </c>
       <c r="G4" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E5" s="14">
         <v>0.0005</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E6" s="14">
         <v>0.001</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E7" s="14">
         <v>0.002</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -3960,16 +3971,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>19</v>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6840" tabRatio="993" activeTab="2"/>
+    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="10" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -26,14 +26,15 @@
     <sheet name="Parameters" sheetId="14" r:id="rId16"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId17"/>
     <sheet name="Evidence" sheetId="19" r:id="rId18"/>
-    <sheet name="References" sheetId="16" r:id="rId19"/>
+    <sheet name="Interpretations" sheetId="21" r:id="rId19"/>
+    <sheet name="References" sheetId="16" r:id="rId20"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Compartments!$A$1:$G$3</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Species types'!$A$1:$I$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Reactions!$A$1:$D$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="4">Compartments!$A$1:$G$3</definedName>
@@ -63,20 +64,20 @@
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="15">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="18">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="19">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="204">
   <si>
     <t>Id</t>
   </si>
@@ -189,6 +190,9 @@
     <t>Evidence</t>
   </si>
   <si>
+    <t>Interpretations</t>
+  </si>
+  <si>
     <t>submodel_1</t>
   </si>
   <si>
@@ -630,10 +634,25 @@
     <t>Genetic variant</t>
   </si>
   <si>
-    <t>Temperature (C)</t>
-  </si>
-  <si>
     <t>Growth media</t>
+  </si>
+  <si>
+    <t>Condition</t>
+  </si>
+  <si>
+    <t>Experiment type</t>
+  </si>
+  <si>
+    <t>Experiment design</t>
+  </si>
+  <si>
+    <t>Measurement method</t>
+  </si>
+  <si>
+    <t>Analysis method</t>
+  </si>
+  <si>
+    <t>Method</t>
   </si>
   <si>
     <t>Title</t>
@@ -677,12 +696,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -719,9 +738,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,23 +780,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -763,36 +811,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -807,22 +826,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -837,7 +841,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -851,9 +871,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -874,12 +893,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -892,7 +905,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -904,13 +917,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -922,31 +941,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -964,7 +959,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +989,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,25 +1019,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,43 +1067,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1077,17 +1096,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1095,8 +1108,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1110,11 +1138,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,36 +1168,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1174,143 +1178,158 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1327,6 +1346,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1346,10 +1368,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1827,25 +1849,25 @@
       <c r="A8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="18"/>
+      <c r="B8" s="19"/>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="18"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="19" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1853,25 +1875,25 @@
       <c r="A12" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="18"/>
+      <c r="B12" s="19"/>
     </row>
     <row r="13" customHeight="1" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="18"/>
+      <c r="B13" s="19"/>
     </row>
     <row r="14" customHeight="1" spans="1:2">
       <c r="A14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="18"/>
+      <c r="B14" s="19"/>
     </row>
     <row r="15" customHeight="1" spans="1:2">
       <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="18"/>
+      <c r="B15" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1886,25 +1908,25 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="2" width="9.10833333333333" style="2"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="1022" width="9.10833333333333" style="2"/>
-    <col min="1023" max="16384" width="9" style="2"/>
+    <col min="4" max="1023" width="9.10833333333333" style="2"/>
+    <col min="1024" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1912,10 +1934,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -1924,32 +1946,35 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1965,14 +1990,14 @@
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:N6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2:F6"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
@@ -1981,11 +2006,11 @@
     <col min="2" max="2" width="25.925" style="2"/>
     <col min="3" max="3" width="15.2083333333333" style="2"/>
     <col min="4" max="4" width="46.5916666666667" style="2"/>
-    <col min="5" max="1026" width="8.78333333333333" style="2"/>
-    <col min="1027" max="16384" width="9" style="6"/>
+    <col min="5" max="1027" width="8.78333333333333" style="2"/>
+    <col min="1028" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:13">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1993,25 +2018,25 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J1" s="4" t="s">
         <v>18</v>
@@ -2020,126 +2045,129 @@
         <v>36</v>
       </c>
       <c r="L1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="M1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="E2" s="12">
+        <v>133</v>
+      </c>
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G2" s="12"/>
-      <c r="H2" s="12"/>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
+      <c r="F2" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="E3" s="12">
-        <v>0</v>
-      </c>
-      <c r="F3" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E4" s="12">
+        <v>140</v>
+      </c>
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="F4" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D5" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="12">
+        <v>41</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
+      <c r="F5" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E6" s="2">
         <v>0</v>
       </c>
-      <c r="F6" s="12" t="s">
-        <v>133</v>
+      <c r="F6" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -2155,14 +2183,14 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2172,11 +2200,11 @@
     <col min="4" max="4" width="10.6" style="2"/>
     <col min="5" max="5" width="4.875" style="2" customWidth="1"/>
     <col min="6" max="6" width="60.625" style="2" customWidth="1"/>
-    <col min="7" max="1025" width="10.6" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="7" max="1026" width="10.6" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2184,19 +2212,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2205,128 +2233,137 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>148</v>
+        <v>131</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
+      <c r="J2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="G3" t="s">
         <v>134</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G3" t="s">
-        <v>133</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
+      <c r="J3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>148</v>
+        <v>138</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="G4" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:11">
+      <c r="J4"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>156</v>
+        <v>138</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>157</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="K5" s="7"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:11">
+      <c r="J5"/>
+      <c r="L5" s="8"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>148</v>
+        <v>141</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="K6" s="7"/>
-    </row>
-    <row r="7" customHeight="1" spans="7:9">
+      <c r="J6"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" customHeight="1" spans="7:10">
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
+      <c r="J7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2338,14 +2375,14 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F1:F2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -2353,7 +2390,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:11">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2361,19 +2398,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2382,27 +2419,30 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>17</v>
@@ -2417,24 +2457,24 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.8916666666667" style="8"/>
-    <col min="2" max="3" width="24.3166666666667" style="8"/>
-    <col min="4" max="1025" width="10.8166666666667" style="8"/>
+    <col min="1" max="1" width="17.8916666666667" style="9"/>
+    <col min="2" max="3" width="24.3166666666667" style="9"/>
+    <col min="4" max="1026" width="10.8166666666667" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:9">
+    <row r="1" ht="15.1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2442,13 +2482,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2457,9 +2497,12 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2476,57 +2519,60 @@
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.3916666666667" style="8"/>
-    <col min="2" max="2" width="17.8916666666667" style="8"/>
-    <col min="3" max="3" width="21.2083333333333" style="8"/>
-    <col min="4" max="4" width="9.31666666666667" style="8"/>
-    <col min="5" max="5" width="10.5" style="8"/>
-    <col min="6" max="6" width="9.31666666666667" style="8"/>
-    <col min="7" max="7" width="16.3916666666667" style="8"/>
-    <col min="8" max="1025" width="10.8166666666667" style="8"/>
+    <col min="1" max="1" width="13.3916666666667" style="9"/>
+    <col min="2" max="2" width="17.8916666666667" style="9"/>
+    <col min="3" max="3" width="21.2083333333333" style="9"/>
+    <col min="4" max="4" width="9.31666666666667" style="9"/>
+    <col min="5" max="5" width="10.5" style="9"/>
+    <col min="6" max="6" width="9.31666666666667" style="9"/>
+    <col min="7" max="7" width="16.3916666666667" style="9"/>
+    <col min="8" max="1026" width="10.8166666666667" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:10">
-      <c r="A1" s="9" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>165</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="D1" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="10" t="s">
         <v>18</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="9" t="s">
+      <c r="K1" s="10" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2543,14 +2589,14 @@
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A11" sqref="A11:F11"/>
+      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2561,11 +2607,11 @@
     <col min="4" max="4" width="9.25" style="2"/>
     <col min="5" max="5" width="13.3916666666667" style="2"/>
     <col min="6" max="6" width="50.2416666666667" style="2"/>
-    <col min="7" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="7" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:10">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2573,16 +2619,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>18</v>
@@ -2591,21 +2637,24 @@
         <v>36</v>
       </c>
       <c r="I1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:9">
+    <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
@@ -2613,134 +2662,134 @@
       <c r="F2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>169</v>
+      <c r="J2" s="2" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D4" s="8">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D4" s="7">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D5" s="7">
+        <v>172</v>
+      </c>
+      <c r="D5" s="8">
         <v>0.0003</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D6" s="7">
+        <v>172</v>
+      </c>
+      <c r="D6" s="8">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="D7" s="7">
+        <v>172</v>
+      </c>
+      <c r="D7" s="8">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D8" s="7">
+        <v>179</v>
+      </c>
+      <c r="D8" s="8">
         <v>0.001</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D11" s="7">
+        <v>150</v>
+      </c>
+      <c r="D11" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2756,23 +2805,23 @@
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -2780,10 +2829,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>18</v>
@@ -2792,9 +2841,12 @@
         <v>36</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2811,14 +2863,14 @@
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2826,7 +2878,7 @@
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:14">
+    <row r="1" customHeight="1" spans="1:22">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2834,16 +2886,16 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>182</v>
+        <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>183</v>
@@ -2852,21 +2904,45 @@
         <v>184</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="L1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="N1" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q1" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="R1" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="S1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2877,6 +2953,170 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="15.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="2" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="2"/>
+    <col min="1023" max="1023" width="9.10833333333333"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:11">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+    </row>
+    <row r="3" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+    </row>
+    <row r="4" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+    </row>
+    <row r="6" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+    </row>
+    <row r="7" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+    </row>
+    <row r="9" ht="15.1" customHeight="1" spans="3:4">
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight" activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
+  <cols>
+    <col min="1" max="1025" width="10.6" style="2"/>
+    <col min="1026" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:2">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:2">
+      <c r="A5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -2908,46 +3148,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="M1" s="4" t="s">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="N1" s="4" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="O1" s="4" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="P1" s="4" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -2961,72 +3201,6 @@
   <autoFilter ref="A1:D1">
     <extLst/>
   </autoFilter>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection/>
-      <selection pane="topRight" activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1025" width="10.6" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:2">
-      <c r="A2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:2">
-      <c r="A3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:2">
-      <c r="A5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -3038,7 +3212,7 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
       <selection pane="topRight" activeCell="C7" sqref="C7"/>
@@ -3049,7 +3223,7 @@
     <col min="1" max="1" width="18.5" style="2" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="2" customWidth="1"/>
     <col min="3" max="1015" width="8.78333333333333" style="2"/>
-    <col min="1016" max="16384" width="9" style="17"/>
+    <col min="1016" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
@@ -3121,14 +3295,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ3"/>
+  <dimension ref="A1:AMK3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3137,14 +3311,14 @@
     <col min="2" max="2" width="13.8166666666667" style="2"/>
     <col min="3" max="3" width="16.3916666666667" style="2"/>
     <col min="4" max="4" width="8.78333333333333" style="2"/>
-    <col min="5" max="5" width="9.31666666666667" style="2"/>
-    <col min="6" max="6" width="9.425" style="2"/>
-    <col min="7" max="1021" width="8.78333333333333" style="2"/>
-    <col min="1022" max="1025" width="8.78333333333333" style="6"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="5" max="6" width="9.31666666666667" style="2"/>
+    <col min="7" max="7" width="9.425" style="2"/>
+    <col min="8" max="1022" width="8.78333333333333" style="2"/>
+    <col min="1023" max="1026" width="8.78333333333333" style="7"/>
+    <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3161,35 +3335,38 @@
         <v>36</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMH1" s="6"/>
-      <c r="AMI1" s="6"/>
-      <c r="AMJ1" s="6"/>
+      <c r="AMI1" s="7"/>
+      <c r="AMJ1" s="7"/>
+      <c r="AMK1" s="7"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3202,14 +3379,14 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMO3"/>
+  <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L2" sqref="L2"/>
+      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3219,47 +3396,47 @@
     <col min="4" max="5" width="13.3916666666667" style="2"/>
     <col min="6" max="7" width="12.75" style="2" customWidth="1"/>
     <col min="8" max="8" width="10.8166666666667" style="2"/>
-    <col min="9" max="1028" width="8.78333333333333" style="2"/>
-    <col min="1029" max="1030" width="8.78333333333333" style="6"/>
-    <col min="1031" max="16384" width="9" style="6"/>
+    <col min="9" max="1029" width="8.78333333333333" style="2"/>
+    <col min="1030" max="1031" width="8.78333333333333" style="7"/>
+    <col min="1032" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1029">
-      <c r="A1" s="16" t="s">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1030">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L1" s="4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="4" t="s">
         <v>18</v>
@@ -3268,75 +3445,78 @@
         <v>36</v>
       </c>
       <c r="O1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="4" t="s">
+      <c r="Q1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMO1" s="6"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:15">
+      <c r="AMP1" s="7"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="I2" s="7">
+        <v>61</v>
+      </c>
+      <c r="I2" s="8">
         <v>4.58e-17</v>
       </c>
       <c r="J2" s="2">
         <v>4.58e-18</v>
       </c>
       <c r="K2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:16">
+      <c r="A3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="I3" s="2">
         <v>1</v>
@@ -3345,13 +3525,13 @@
         <v>0</v>
       </c>
       <c r="K3" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="O3" s="2" t="s">
         <v>67</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -3367,14 +3547,14 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMJ14"/>
+  <dimension ref="A1:AMK14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G14" sqref="G14"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3386,13 +3566,13 @@
     <col min="5" max="5" width="10.3916666666667" style="2"/>
     <col min="6" max="6" width="9.425" style="2"/>
     <col min="7" max="8" width="19.3916666666667" style="2"/>
-    <col min="9" max="9" width="10.5" style="2"/>
-    <col min="10" max="1023" width="8.78333333333333" style="2"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="15"/>
-    <col min="1026" max="16384" width="9" style="15"/>
+    <col min="9" max="10" width="10.5" style="2"/>
+    <col min="11" max="1024" width="8.78333333333333" style="2"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="16"/>
+    <col min="1027" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:1024">
+    <row r="1" s="2" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3400,19 +3580,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3421,22 +3601,25 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AMJ1" s="15"/>
+      <c r="AMK1" s="16"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
       <c r="A2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2">
         <v>1</v>
@@ -3444,20 +3627,20 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="14"/>
+      <c r="G2" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
       <c r="A3" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2">
         <v>2</v>
@@ -3465,20 +3648,20 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="14"/>
+      <c r="G3" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E4" s="2">
         <v>3</v>
@@ -3486,20 +3669,20 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H4" s="14"/>
+      <c r="G4" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E5" s="2">
         <v>4</v>
@@ -3507,20 +3690,20 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H5" s="14"/>
+      <c r="G5" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E6" s="2">
         <v>5</v>
@@ -3528,20 +3711,20 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="H6" s="14"/>
+      <c r="G6" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E7" s="2">
         <v>6</v>
@@ -3549,19 +3732,19 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>76</v>
+      <c r="G7" s="15" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" s="2">
         <v>10</v>
@@ -3570,11 +3753,11 @@
         <v>0</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="7:7">
-      <c r="G14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I8">
@@ -3589,24 +3772,24 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D29" sqref="$A1:$XFD1048576"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="6" width="15.7416666666667" style="2"/>
-    <col min="7" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="7" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3614,13 +3797,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -3629,136 +3812,139 @@
         <v>36</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3774,14 +3960,14 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -3793,14 +3979,14 @@
     <col min="6" max="6" width="10.5" style="2"/>
     <col min="7" max="7" width="10.3916666666667" style="2"/>
     <col min="8" max="8" width="9.425" style="2"/>
-    <col min="9" max="10" width="19.3916666666667" style="2"/>
-    <col min="11" max="12" width="10.5" style="2"/>
-    <col min="13" max="13" width="23.675" style="2"/>
-    <col min="14" max="1025" width="8.78333333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="6"/>
+    <col min="9" max="11" width="19.3916666666667" style="2"/>
+    <col min="12" max="13" width="10.5" style="2"/>
+    <col min="14" max="14" width="23.675" style="2"/>
+    <col min="15" max="1026" width="8.78333333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" spans="1:11">
+    <row r="1" ht="15" customHeight="1" spans="1:12">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -3808,19 +3994,19 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -3829,112 +4015,115 @@
         <v>36</v>
       </c>
       <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="14">
+        <v>61</v>
+      </c>
+      <c r="E2" s="15">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="14" t="s">
-        <v>112</v>
+      <c r="G2" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="15">
+        <v>0.0002</v>
+      </c>
+      <c r="G3" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0.0002</v>
-      </c>
-      <c r="G3" s="14" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E4" s="14">
+        <v>61</v>
+      </c>
+      <c r="E4" s="15">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>112</v>
+      <c r="G4" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E5" s="14">
+        <v>61</v>
+      </c>
+      <c r="E5" s="15">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>112</v>
+      <c r="G5" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="14">
+        <v>61</v>
+      </c>
+      <c r="E6" s="15">
         <v>0.001</v>
       </c>
-      <c r="G6" s="14" t="s">
-        <v>112</v>
+      <c r="G6" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E7" s="14">
+        <v>61</v>
+      </c>
+      <c r="E7" s="15">
         <v>0.002</v>
       </c>
-      <c r="G7" s="14" t="s">
-        <v>112</v>
+      <c r="G7" s="15" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3947,23 +4136,23 @@
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1025" width="9.10833333333333" style="2"/>
-    <col min="1026" max="16384" width="9" style="2"/>
+    <col min="1" max="1026" width="9.10833333333333" style="2"/>
+    <col min="1027" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
+    <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -3971,10 +4160,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>18</v>
@@ -3982,10 +4171,13 @@
       <c r="F1" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>27</v>
       </c>
     </row>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="19800" windowHeight="6945" tabRatio="993" firstSheet="10" activeTab="17"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -77,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="466" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="203">
   <si>
     <t>Id</t>
   </si>
@@ -184,7 +184,7 @@
     <t>dimensionless</t>
   </si>
   <si>
-    <t>Algorithm</t>
+    <t>Framework</t>
   </si>
   <si>
     <t>Evidence</t>
@@ -199,7 +199,7 @@
     <t>Metabolism</t>
   </si>
   <si>
-    <t>dfba</t>
+    <t>dynamic_flux_balance_analysis</t>
   </si>
   <si>
     <t>submodel_2</t>
@@ -208,7 +208,7 @@
     <t>RNA degradation</t>
   </si>
   <si>
-    <t>ssa</t>
+    <t>stochastic_simulation_algorithm</t>
   </si>
   <si>
     <t>Biological type</t>
@@ -247,13 +247,13 @@
     <t>Cell</t>
   </si>
   <si>
-    <t>cellular</t>
-  </si>
-  <si>
-    <t>fluid</t>
-  </si>
-  <si>
-    <t>3d</t>
+    <t>cellular_compartment</t>
+  </si>
+  <si>
+    <t>fluid_compartment</t>
+  </si>
+  <si>
+    <t>3D_compartment</t>
   </si>
   <si>
     <t>e</t>
@@ -262,7 +262,7 @@
     <t>g</t>
   </si>
   <si>
-    <t>normal</t>
+    <t>normal_distribution</t>
   </si>
   <si>
     <t>l</t>
@@ -277,7 +277,7 @@
     <t>Extracellular space</t>
   </si>
   <si>
-    <t>extracellular</t>
+    <t>extracellular_compartment</t>
   </si>
   <si>
     <t>density_e</t>
@@ -527,9 +527,6 @@
   </si>
   <si>
     <t>forward</t>
-  </si>
-  <si>
-    <t>other</t>
   </si>
   <si>
     <t>k_cat_1_for * max( specie_1[e], specie_2[e] )</t>
@@ -696,12 +693,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -751,30 +748,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -787,18 +762,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -819,14 +786,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -840,6 +808,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -847,19 +823,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -871,8 +845,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -893,13 +890,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -917,19 +992,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -941,13 +1052,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -960,120 +1071,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1108,32 +1105,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1149,21 +1137,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,135 +1166,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2190,7 +2187,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
@@ -2252,11 +2249,8 @@
       <c r="D2" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>151</v>
       </c>
       <c r="G2" t="s">
         <v>134</v>
@@ -2267,7 +2261,7 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>135</v>
@@ -2275,11 +2269,8 @@
       <c r="D3" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
         <v>134</v>
@@ -2290,7 +2281,7 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>138</v>
@@ -2298,11 +2289,8 @@
       <c r="D4" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F4" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
         <v>134</v>
@@ -2313,19 +2301,16 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>138</v>
       </c>
       <c r="D5" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>158</v>
       </c>
       <c r="G5" t="s">
         <v>134</v>
@@ -2337,7 +2322,7 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>141</v>
@@ -2345,11 +2330,8 @@
       <c r="D6" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="F6" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G6" t="s">
         <v>134</v>
@@ -2407,10 +2389,10 @@
         <v>97</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>161</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>162</v>
       </c>
       <c r="H1" s="4" t="s">
         <v>18</v>
@@ -2430,7 +2412,7 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>38</v>
@@ -2488,7 +2470,7 @@
         <v>97</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>18</v>
@@ -2549,13 +2531,13 @@
         <v>2</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>108</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>97</v>
@@ -2596,7 +2578,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomRight" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -2622,10 +2604,10 @@
         <v>73</v>
       </c>
       <c r="D1" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>166</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>97</v>
@@ -2648,13 +2630,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>168</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>150</v>
       </c>
       <c r="D2" s="2">
         <v>0.3</v>
@@ -2663,43 +2642,43 @@
         <v>34</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>171</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>172</v>
       </c>
       <c r="D3" s="2">
         <v>1</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D4" s="8">
         <v>2000</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D5" s="8">
         <v>0.0003</v>
@@ -2710,38 +2689,38 @@
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D6" s="8">
         <v>0.0003</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D7" s="8">
         <v>0.0003</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D8" s="8">
         <v>0.001</v>
@@ -2754,42 +2733,33 @@
       <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D9" s="2">
         <v>1100</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="D10" s="2">
         <v>1000</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="D11" s="8">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -2865,7 +2835,7 @@
   <sheetPr/>
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2886,10 +2856,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>97</v>
@@ -2898,10 +2868,10 @@
         <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="H1" s="5" t="s">
         <v>183</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>184</v>
       </c>
       <c r="I1" s="5" t="s">
         <v>29</v>
@@ -2916,22 +2886,22 @@
         <v>33</v>
       </c>
       <c r="M1" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>189</v>
-      </c>
-      <c r="R1" s="5" t="s">
-        <v>190</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>18</v>
@@ -2981,10 +2951,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>167</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>97</v>
@@ -2993,7 +2963,7 @@
         <v>73</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>18</v>
@@ -3148,46 +3118,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E1" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>193</v>
-      </c>
-      <c r="F1" s="4" t="s">
-        <v>194</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>73</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>197</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L1" s="4" t="s">
         <v>198</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="M1" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="N1" s="4" t="s">
         <v>200</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="O1" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="P1" s="4" t="s">
         <v>202</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>203</v>
       </c>
       <c r="Q1" s="4" t="s">
         <v>18</v>
@@ -3297,12 +3267,12 @@
   <sheetPr/>
   <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3382,11 +3352,11 @@
   <dimension ref="A1:AMP3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="H2" sqref="H2:H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -3554,7 +3524,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3627,7 +3597,7 @@
       <c r="F2" s="2">
         <v>0</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H2" s="15"/>
@@ -3648,7 +3618,7 @@
       <c r="F3" s="2">
         <v>0</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G3" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H3" s="15"/>
@@ -3669,7 +3639,7 @@
       <c r="F4" s="2">
         <v>0</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H4" s="15"/>
@@ -3690,7 +3660,7 @@
       <c r="F5" s="2">
         <v>0</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H5" s="15"/>
@@ -3711,7 +3681,7 @@
       <c r="F6" s="2">
         <v>0</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="2" t="s">
         <v>77</v>
       </c>
       <c r="H6" s="15"/>
@@ -3732,7 +3702,7 @@
       <c r="F7" s="2">
         <v>0</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="2" t="s">
         <v>77</v>
       </c>
     </row>
@@ -3967,7 +3937,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2:D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="3"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -172,7 +172,7 @@
     <t>Temperature units</t>
   </si>
   <si>
-    <t>C</t>
+    <t>degC</t>
   </si>
   <si>
     <t>pH</t>
@@ -693,12 +693,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -735,16 +735,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -756,14 +758,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,15 +781,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -801,43 +815,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -845,16 +822,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -869,7 +846,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,7 +890,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -902,115 +1058,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1022,55 +1070,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1093,11 +1093,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,6 +1133,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1143,41 +1164,20 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1193,135 +1193,135 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,10 +1365,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3182,10 +3182,10 @@
   <sheetPr/>
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="C7" sqref="C7"/>
+      <selection pane="topRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
@@ -3267,7 +3267,7 @@
   <sheetPr/>
   <dimension ref="A1:AMK3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="6" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="12" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="485" uniqueCount="218">
   <si>
     <t>Id</t>
   </si>
@@ -645,6 +645,9 @@
     <t>Method</t>
   </si>
   <si>
+    <t>Authors</t>
+  </si>
+  <si>
     <t>Title</t>
   </si>
   <si>
@@ -711,6 +714,9 @@
     <t>Target</t>
   </si>
   <si>
+    <t>Target submodel</t>
+  </si>
+  <si>
     <t>Target type</t>
   </si>
   <si>
@@ -724,9 +730,6 @@
   </si>
   <si>
     <t>Intention type</t>
-  </si>
-  <si>
-    <t>Authors</t>
   </si>
   <si>
     <t>Date</t>
@@ -737,12 +740,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="0.000E+00"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -779,6 +782,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -788,15 +810,10 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -808,44 +825,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,8 +840,16 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -875,6 +863,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -882,16 +886,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -906,7 +909,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -934,31 +937,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -976,7 +979,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -988,49 +991,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1021,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,7 +1075,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,49 +1093,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1134,6 +1137,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1164,8 +1176,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1181,21 +1208,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1225,152 +1237,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1381,9 +1384,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1412,10 +1412,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1827,17 +1827,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="10.6" style="4"/>
-    <col min="2" max="2" width="15.2083333333333" style="4"/>
-    <col min="3" max="1025" width="10.6" style="4"/>
-    <col min="1026" max="16384" width="9" style="4"/>
+    <col min="1" max="1" width="10.6" style="1"/>
+    <col min="2" max="2" width="15.2083333333333" style="1"/>
+    <col min="3" max="1025" width="10.6" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1845,7 +1845,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1853,7 +1853,7 @@
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1861,7 +1861,7 @@
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1885,7 +1885,7 @@
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="19" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1901,25 +1901,25 @@
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="20"/>
+      <c r="B9" s="19"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="20"/>
+      <c r="B10" s="19"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="20"/>
+      <c r="B11" s="19"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="20"/>
+      <c r="B12" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1946,10 +1946,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="2" width="9.10833333333333" style="4"/>
-    <col min="3" max="3" width="11" style="4" customWidth="1"/>
-    <col min="4" max="1023" width="9.10833333333333" style="4"/>
-    <col min="1024" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="9.10833333333333" style="1"/>
+    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="4" max="1023" width="9.10833333333333" style="1"/>
+    <col min="1024" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -1982,24 +1982,24 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2028,12 +2028,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="18.2083333333333" style="4"/>
-    <col min="2" max="2" width="25.925" style="4"/>
-    <col min="3" max="3" width="15.2083333333333" style="4"/>
-    <col min="4" max="4" width="46.5916666666667" style="4"/>
-    <col min="5" max="1027" width="8.78333333333333" style="4"/>
-    <col min="1028" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="18.2083333333333" style="1"/>
+    <col min="2" max="2" width="25.925" style="1"/>
+    <col min="3" max="3" width="15.2083333333333" style="1"/>
+    <col min="4" max="4" width="46.5916666666667" style="1"/>
+    <col min="5" max="1027" width="8.78333333333333" style="1"/>
+    <col min="1028" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:14">
@@ -2081,118 +2081,118 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="E2" s="14">
+      <c r="E2" s="13">
         <v>0</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="15"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E3" s="14">
+      <c r="E3" s="13">
         <v>0</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="15"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E4" s="14">
+      <c r="E4" s="13">
         <v>1</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="E5" s="14">
+      <c r="E5" s="13">
         <v>0</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>0</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2221,13 +2221,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="2" width="10.6" style="4"/>
-    <col min="3" max="3" width="9.125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="10.6" style="4"/>
-    <col min="5" max="5" width="4.875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="60.625" style="4" customWidth="1"/>
-    <col min="7" max="1026" width="10.6" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="2" width="10.6" style="1"/>
+    <col min="3" max="3" width="9.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.6" style="1"/>
+    <col min="5" max="5" width="4.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="60.625" style="1" customWidth="1"/>
+    <col min="7" max="1026" width="10.6" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2269,16 +2269,16 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>147</v>
       </c>
       <c r="G2" t="s">
@@ -2289,16 +2289,16 @@
       <c r="J2"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>149</v>
       </c>
       <c r="G3" t="s">
@@ -2309,16 +2309,16 @@
       <c r="J3"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>151</v>
       </c>
       <c r="G4" t="s">
@@ -2329,16 +2329,16 @@
       <c r="J4"/>
     </row>
     <row r="5" customHeight="1" spans="1:12">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>154</v>
       </c>
       <c r="G5" t="s">
@@ -2347,19 +2347,19 @@
       <c r="H5"/>
       <c r="I5"/>
       <c r="J5"/>
-      <c r="L5" s="9"/>
+      <c r="L5" s="8"/>
     </row>
     <row r="6" customHeight="1" spans="1:12">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>146</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>156</v>
       </c>
       <c r="G6" t="s">
@@ -2368,7 +2368,7 @@
       <c r="H6"/>
       <c r="I6"/>
       <c r="J6"/>
-      <c r="L6" s="9"/>
+      <c r="L6" s="8"/>
     </row>
     <row r="7" customHeight="1" spans="7:10">
       <c r="G7"/>
@@ -2398,7 +2398,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
@@ -2440,22 +2440,22 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2480,9 +2480,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="17.8916666666667" style="10"/>
-    <col min="2" max="3" width="24.3166666666667" style="10"/>
-    <col min="4" max="1026" width="10.8166666666667" style="10"/>
+    <col min="1" max="1" width="17.8916666666667" style="9"/>
+    <col min="2" max="3" width="24.3166666666667" style="9"/>
+    <col min="4" max="1026" width="10.8166666666667" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:10">
@@ -2542,36 +2542,36 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.3916666666667" style="10"/>
-    <col min="2" max="2" width="17.8916666666667" style="10"/>
-    <col min="3" max="3" width="21.2083333333333" style="10"/>
-    <col min="4" max="4" width="9.31666666666667" style="10"/>
-    <col min="5" max="5" width="10.5" style="10"/>
-    <col min="6" max="6" width="9.31666666666667" style="10"/>
-    <col min="7" max="7" width="16.3916666666667" style="10"/>
-    <col min="8" max="1026" width="10.8166666666667" style="10"/>
+    <col min="1" max="1" width="13.3916666666667" style="9"/>
+    <col min="2" max="2" width="17.8916666666667" style="9"/>
+    <col min="3" max="3" width="21.2083333333333" style="9"/>
+    <col min="4" max="4" width="9.31666666666667" style="9"/>
+    <col min="5" max="5" width="10.5" style="9"/>
+    <col min="6" max="6" width="9.31666666666667" style="9"/>
+    <col min="7" max="7" width="16.3916666666667" style="9"/>
+    <col min="8" max="1026" width="10.8166666666667" style="9"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:11">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>15</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -2580,10 +2580,10 @@
       <c r="I1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2612,14 +2612,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="23.35" style="4"/>
-    <col min="2" max="2" width="44.5666666666667" style="4"/>
-    <col min="3" max="3" width="9.10833333333333" style="4"/>
-    <col min="4" max="4" width="9.25" style="4"/>
-    <col min="5" max="5" width="13.3916666666667" style="4"/>
-    <col min="6" max="6" width="50.2416666666667" style="4"/>
-    <col min="7" max="1026" width="8.78333333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="23.35" style="1"/>
+    <col min="2" max="2" width="44.5666666666667" style="1"/>
+    <col min="3" max="3" width="9.10833333333333" style="1"/>
+    <col min="4" max="4" width="9.25" style="1"/>
+    <col min="5" max="5" width="13.3916666666667" style="1"/>
+    <col min="6" max="6" width="50.2416666666667" style="1"/>
+    <col min="7" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:11">
@@ -2658,136 +2658,136 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="1">
         <v>0.3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="1" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>170</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="8">
         <v>2000</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.0003</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="1" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="8">
         <v>0.0003</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="8">
         <v>0.0003</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="1" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="8">
         <v>0.001</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="1">
         <v>1100</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="1">
         <v>1000</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="1" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="8">
         <v>6.02214075862e+23</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="1" t="s">
         <v>178</v>
       </c>
     </row>
@@ -2816,8 +2816,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="9.10833333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
@@ -2874,74 +2874,74 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="9" style="4"/>
+    <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:22">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L1" s="6" t="s">
+      <c r="L1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="N1" s="6" t="s">
+      <c r="N1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="S1" s="6" t="s">
+      <c r="S1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="6" t="s">
+      <c r="T1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="U1" s="6" t="s">
+      <c r="U1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -2954,90 +2954,93 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomRight" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="15.125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="14.75" style="4" customWidth="1"/>
-    <col min="3" max="1022" width="9.10833333333333" style="4"/>
+    <col min="1" max="1" width="15.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.75" style="1" customWidth="1"/>
+    <col min="3" max="1022" width="9.10833333333333" style="1"/>
     <col min="1023" max="1023" width="9.10833333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.1" customHeight="1" spans="1:11">
-      <c r="A1" s="6" t="s">
+    <row r="1" ht="15.1" customHeight="1" spans="1:12">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="J1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="K1" s="5" t="s">
         <v>24</v>
       </c>
+      <c r="L1" s="5" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="2" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
     </row>
     <row r="5" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
     </row>
     <row r="6" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" ht="15.1" customHeight="1" spans="3:4">
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -3062,15 +3065,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1025" width="10.6" style="4"/>
-    <col min="1026" max="16384" width="9" style="4"/>
+    <col min="1" max="1025" width="10.6" style="1"/>
+    <col min="1026" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
@@ -3078,7 +3081,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
     </row>
@@ -3086,7 +3089,7 @@
       <c r="A3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3099,7 +3102,7 @@
       <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>23</v>
       </c>
     </row>
@@ -3130,13 +3133,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.35833333333333" style="4"/>
-    <col min="2" max="2" width="16.3916666666667" style="4"/>
-    <col min="3" max="3" width="16.175" style="4"/>
-    <col min="4" max="4" width="32.2416666666667" style="4"/>
-    <col min="5" max="1023" width="8.78333333333333" style="4"/>
-    <col min="1024" max="1025" width="8.78333333333333" style="5"/>
-    <col min="1026" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="8.35833333333333" style="1"/>
+    <col min="2" max="2" width="16.3916666666667" style="1"/>
+    <col min="3" max="3" width="16.175" style="1"/>
+    <col min="4" max="4" width="32.2416666666667" style="1"/>
+    <col min="5" max="1023" width="8.78333333333333" style="1"/>
+    <col min="1024" max="1025" width="8.78333333333333" style="4"/>
+    <col min="1026" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1024">
@@ -3147,46 +3150,46 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>15</v>
@@ -3194,7 +3197,7 @@
       <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="AMJ1" s="5"/>
+      <c r="AMJ1" s="4"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1">
@@ -3232,31 +3235,31 @@
         <v>2</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>15</v>
@@ -3274,14 +3277,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -3289,7 +3292,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3300,43 +3303,46 @@
         <v>70</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>215</v>
-      </c>
       <c r="P1" s="2" t="s">
-        <v>216</v>
+        <v>188</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3358,17 +3364,17 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="18.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="5.375" style="4" customWidth="1"/>
-    <col min="3" max="1015" width="8.78333333333333" style="4"/>
-    <col min="1016" max="16384" width="9" style="19"/>
+    <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
+    <col min="3" max="1015" width="8.78333333333333" style="1"/>
+    <col min="1016" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3381,7 +3387,7 @@
       <c r="A3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="1">
         <v>37</v>
       </c>
     </row>
@@ -3389,7 +3395,7 @@
       <c r="A4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>28</v>
       </c>
     </row>
@@ -3397,7 +3403,7 @@
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="1">
         <v>7.75</v>
       </c>
     </row>
@@ -3405,7 +3411,7 @@
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
@@ -3445,15 +3451,15 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="10.3916666666667" style="4"/>
-    <col min="2" max="2" width="13.8166666666667" style="4"/>
-    <col min="3" max="3" width="16.3916666666667" style="4"/>
-    <col min="4" max="4" width="8.78333333333333" style="4"/>
-    <col min="5" max="6" width="9.31666666666667" style="4"/>
-    <col min="7" max="7" width="9.425" style="4"/>
-    <col min="8" max="1022" width="8.78333333333333" style="4"/>
-    <col min="1023" max="1026" width="8.78333333333333" style="8"/>
-    <col min="1027" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="10.3916666666667" style="1"/>
+    <col min="2" max="2" width="13.8166666666667" style="1"/>
+    <col min="3" max="3" width="16.3916666666667" style="1"/>
+    <col min="4" max="4" width="8.78333333333333" style="1"/>
+    <col min="5" max="6" width="9.31666666666667" style="1"/>
+    <col min="7" max="7" width="9.425" style="1"/>
+    <col min="8" max="1022" width="8.78333333333333" style="1"/>
+    <col min="1023" max="1026" width="8.78333333333333" style="7"/>
+    <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1025">
@@ -3481,29 +3487,29 @@
       <c r="H1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AMI1" s="8"/>
-      <c r="AMJ1" s="8"/>
-      <c r="AMK1" s="8"/>
+      <c r="AMI1" s="7"/>
+      <c r="AMJ1" s="7"/>
+      <c r="AMK1" s="7"/>
     </row>
     <row r="2" customHeight="1" spans="1:3">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>40</v>
       </c>
     </row>
@@ -3529,24 +3535,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="5.14166666666667" style="4"/>
-    <col min="2" max="3" width="17.8916666666667" style="4"/>
-    <col min="4" max="5" width="13.3916666666667" style="4"/>
-    <col min="6" max="7" width="12.75" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.8166666666667" style="4"/>
-    <col min="9" max="1029" width="8.78333333333333" style="4"/>
-    <col min="1030" max="1031" width="8.78333333333333" style="8"/>
-    <col min="1032" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="5.14166666666667" style="1"/>
+    <col min="2" max="3" width="17.8916666666667" style="1"/>
+    <col min="4" max="5" width="13.3916666666667" style="1"/>
+    <col min="6" max="7" width="12.75" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.8166666666667" style="1"/>
+    <col min="9" max="1029" width="8.78333333333333" style="1"/>
+    <col min="1030" max="1031" width="8.78333333333333" style="7"/>
+    <col min="1032" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1030">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -3591,84 +3597,84 @@
       <c r="Q1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AMP1" s="8"/>
+      <c r="AMP1" s="7"/>
     </row>
     <row r="2" customHeight="1" spans="1:16">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I2" s="9">
+      <c r="I2" s="8">
         <v>4.58e-17</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="1">
         <v>4.58e-18</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:16">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I3" s="4">
+      <c r="I3" s="1">
         <v>1</v>
       </c>
-      <c r="J3" s="4">
+      <c r="J3" s="1">
         <v>0</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="P3" s="4" t="s">
+      <c r="P3" s="1" t="s">
         <v>65</v>
       </c>
     </row>
@@ -3697,20 +3703,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.78333333333333" style="4"/>
-    <col min="2" max="2" width="15.3166666666667" style="4"/>
-    <col min="3" max="3" width="11.4583333333333" style="4"/>
-    <col min="4" max="4" width="16.125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="10.3916666666667" style="4"/>
-    <col min="6" max="6" width="9.425" style="4"/>
-    <col min="7" max="8" width="19.3916666666667" style="4"/>
-    <col min="9" max="10" width="10.5" style="4"/>
-    <col min="11" max="1024" width="8.78333333333333" style="4"/>
-    <col min="1025" max="1026" width="8.78333333333333" style="17"/>
-    <col min="1027" max="16384" width="9" style="17"/>
+    <col min="1" max="1" width="8.78333333333333" style="1"/>
+    <col min="2" max="2" width="15.3166666666667" style="1"/>
+    <col min="3" max="3" width="11.4583333333333" style="1"/>
+    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="10.3916666666667" style="1"/>
+    <col min="6" max="6" width="9.425" style="1"/>
+    <col min="7" max="8" width="19.3916666666667" style="1"/>
+    <col min="9" max="10" width="10.5" style="1"/>
+    <col min="11" max="1024" width="8.78333333333333" style="1"/>
+    <col min="1025" max="1026" width="8.78333333333333" style="16"/>
+    <col min="1027" max="16384" width="9" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="1" customHeight="1" spans="1:1025">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3747,155 +3753,155 @@
       <c r="L1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AMK1" s="17"/>
+      <c r="AMK1" s="16"/>
     </row>
     <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H2" s="16"/>
+      <c r="H2" s="15"/>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="16"/>
+      <c r="H3" s="15"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="16"/>
+      <c r="H4" s="15"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="1">
         <v>4</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="16"/>
+      <c r="H5" s="15"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="1">
         <v>5</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="16"/>
+      <c r="H6" s="15"/>
     </row>
     <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="1">
         <v>6</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="1">
         <v>0</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="1">
         <v>10</v>
       </c>
-      <c r="F8" s="4">
+      <c r="F8" s="1">
         <v>0</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="1" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="7:7">
-      <c r="G14" s="13"/>
+      <c r="G14" s="12"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I8">
@@ -3922,9 +3928,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="6" width="15.7416666666667" style="4"/>
-    <col min="7" max="1026" width="9.10833333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="6" width="15.7416666666667" style="1"/>
+    <col min="7" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
@@ -3960,128 +3966,128 @@
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="1" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="1" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4110,18 +4116,18 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="10.3916666666667" style="4"/>
-    <col min="2" max="2" width="9.75" style="4"/>
-    <col min="3" max="3" width="10" style="4" customWidth="1"/>
-    <col min="4" max="5" width="9.75" style="4"/>
-    <col min="6" max="6" width="10.5" style="4"/>
-    <col min="7" max="7" width="10.3916666666667" style="4"/>
-    <col min="8" max="8" width="9.425" style="4"/>
-    <col min="9" max="11" width="19.3916666666667" style="4"/>
-    <col min="12" max="13" width="10.5" style="4"/>
-    <col min="14" max="14" width="23.675" style="4"/>
-    <col min="15" max="1026" width="8.78333333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="10.3916666666667" style="1"/>
+    <col min="2" max="2" width="9.75" style="1"/>
+    <col min="3" max="3" width="10" style="1" customWidth="1"/>
+    <col min="4" max="5" width="9.75" style="1"/>
+    <col min="6" max="6" width="10.5" style="1"/>
+    <col min="7" max="7" width="10.3916666666667" style="1"/>
+    <col min="8" max="8" width="9.425" style="1"/>
+    <col min="9" max="11" width="19.3916666666667" style="1"/>
+    <col min="12" max="13" width="10.5" style="1"/>
+    <col min="14" max="14" width="23.675" style="1"/>
+    <col min="15" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:12">
@@ -4163,104 +4169,104 @@
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="15">
         <v>0.000148</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="G2" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E3" s="16">
+      <c r="E3" s="15">
         <v>0.0002</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="15">
         <v>0.0005</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="15">
         <v>0.0005</v>
       </c>
-      <c r="G5" s="16" t="s">
+      <c r="G5" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="15">
         <v>0.001</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="15" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="15">
         <v>0.002</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="G7" s="15" t="s">
         <v>110</v>
       </c>
     </row>
@@ -4286,24 +4292,24 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1026" width="9.10833333333333" style="4"/>
-    <col min="1027" max="16384" width="9" style="4"/>
+    <col min="1" max="1026" width="9.10833333333333" style="1"/>
+    <col min="1027" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>15</v>
       </c>
       <c r="F1" s="2" t="s">
@@ -4312,7 +4318,7 @@
       <c r="G1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="5" t="s">
         <v>16</v>
       </c>
       <c r="I1" s="2" t="s">

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="13965" tabRatio="993" firstSheet="7" activeTab="18"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="234">
   <si>
     <t>Table</t>
   </si>
@@ -203,7 +203,7 @@
     <t>s</t>
   </si>
   <si>
-    <t>Database references</t>
+    <t>Identifiers</t>
   </si>
   <si>
     <t>Comments</t>
@@ -761,9 +761,6 @@
     <t>Address</t>
   </si>
   <si>
-    <t>ORCID</t>
-  </si>
-  <si>
     <t>Target</t>
   </si>
   <si>
@@ -793,12 +790,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -847,8 +844,58 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -862,58 +909,15 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -928,23 +932,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -965,14 +962,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -980,11 +970,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1009,7 +1006,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1021,7 +1036,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1033,25 +1132,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,127 +1186,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,24 +1224,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1256,17 +1235,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1286,6 +1254,44 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1300,148 +1306,139 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1496,10 +1493,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -35927,12 +35924,12 @@
   <sheetPr/>
   <dimension ref="A1:V2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="A1:V2"/>
+      <selection pane="bottomRight" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -36344,14 +36341,14 @@
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M1"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
@@ -36359,7 +36356,7 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:13">
+    <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>25</v>
       </c>
@@ -36391,12 +36388,9 @@
         <v>225</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>226</v>
+        <v>40</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
     </row>
@@ -36435,25 +36429,25 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -36474,7 +36468,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" firstSheet="13" activeTab="21"/>
+    <workbookView windowWidth="20295" windowHeight="6840" tabRatio="993" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="238">
   <si>
     <t>Table</t>
   </si>
@@ -242,15 +242,6 @@
     <t>degC</t>
   </si>
   <si>
-    <t>pH</t>
-  </si>
-  <si>
-    <t>pH units</t>
-  </si>
-  <si>
-    <t>dimensionless</t>
-  </si>
-  <si>
     <t>Framework</t>
   </si>
   <si>
@@ -275,6 +266,9 @@
     <t>Initial volume</t>
   </si>
   <si>
+    <t>pH</t>
+  </si>
+  <si>
     <t>Biological type</t>
   </si>
   <si>
@@ -290,19 +284,22 @@
     <t>Mass units</t>
   </si>
   <si>
-    <t>Distribution</t>
+    <t>Volume distribution</t>
   </si>
   <si>
-    <t>Mean</t>
+    <t>Volume mean</t>
   </si>
   <si>
-    <t>Standard deviation</t>
+    <t>Volume standard deviation</t>
   </si>
   <si>
-    <t>Units</t>
+    <t>Volume units</t>
   </si>
   <si>
     <t>Initial density</t>
+  </si>
+  <si>
+    <t>pH units</t>
   </si>
   <si>
     <t>c</t>
@@ -333,6 +330,9 @@
   </si>
   <si>
     <t>density_c</t>
+  </si>
+  <si>
+    <t>dimensionless</t>
   </si>
   <si>
     <t>Average volume of Mycoplasma pneumoniae is 66 aL [Ref-0001]. This equates to 45.8 aL at the beginning of the cell cycle (66 aL * ln(2)).</t>
@@ -434,6 +434,9 @@
     <t>Compartment</t>
   </si>
   <si>
+    <t>Units</t>
+  </si>
+  <si>
     <t>specie_1[e]</t>
   </si>
   <si>
@@ -462,6 +465,15 @@
   </si>
   <si>
     <t>biomass[c]</t>
+  </si>
+  <si>
+    <t>Distribution</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard deviation</t>
   </si>
   <si>
     <t>dist-init-conc-specie_1[e]</t>
@@ -790,12 +802,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -844,29 +856,36 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -880,7 +899,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -894,15 +913,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -917,7 +945,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -932,16 +960,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -954,9 +974,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,21 +994,6 @@
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1006,7 +1018,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1060,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,25 +1096,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1060,133 +1192,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1206,6 +1218,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1268,8 +1304,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1278,167 +1314,143 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2190,10 +2202,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E1" s="5" t="s">
         <v>40</v>
@@ -2250,10 +2262,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -2273,24 +2285,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -2334,7 +2346,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="16" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -18722,25 +18734,25 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="J2" s="2" t="s">
         <v>40</v>
@@ -35130,22 +35142,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E3" s="17">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -35154,22 +35166,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E4" s="17">
         <v>0</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -35178,22 +35190,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -35202,22 +35214,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="E6" s="17">
         <v>0</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -35229,19 +35241,19 @@
         <v>113</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -35289,19 +35301,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -35321,19 +35333,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G2" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -35341,19 +35353,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -35361,19 +35373,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>168</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>164</v>
-      </c>
       <c r="F4" s="1" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -35381,19 +35393,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="G5" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -35402,19 +35414,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G6" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -35454,7 +35466,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="4:5">
       <c r="D1" s="12" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E1" s="12"/>
     </row>
@@ -35466,19 +35478,19 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>40</v>
@@ -35498,19 +35510,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>113</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>39</v>
@@ -35553,13 +35565,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -35620,16 +35632,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="D1" s="11" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="G1" s="11" t="s">
         <v>40</v>
@@ -35693,13 +35705,13 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>40</v>
@@ -35719,114 +35731,114 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D4" s="9">
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D5" s="9">
         <v>0.0003</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D6" s="9">
         <v>0.0003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D7" s="9">
         <v>0.0003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="D8" s="9">
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -35837,18 +35849,18 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="D11" s="9">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -35888,10 +35900,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>40</v>
@@ -35939,7 +35951,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:14">
       <c r="G1" s="7" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="H1" s="7"/>
       <c r="I1" s="7" t="s">
@@ -35959,13 +35971,13 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>93</v>
@@ -35974,7 +35986,7 @@
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>50</v>
@@ -35983,28 +35995,28 @@
         <v>51</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>54</v>
+        <v>72</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="S2" s="5" t="s">
         <v>40</v>
@@ -36175,19 +36187,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>93</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="H1" s="5" t="s">
         <v>40</v>
@@ -36279,46 +36291,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>93</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -36343,7 +36355,7 @@
   <sheetPr/>
   <dimension ref="A1:L1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -36364,28 +36376,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -36429,25 +36441,25 @@
         <v>93</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -36468,7 +36480,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -36546,15 +36558,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="B5" sqref="B5"/>
+      <selection pane="topRight" activeCell="A5" sqref="$A5:$XFD6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="6" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="18.5" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.375" style="1" customWidth="1"/>
@@ -36591,34 +36603,18 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:2">
+    <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B5" s="1">
-        <v>7.75</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:2">
+    <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:1">
-      <c r="A8" s="2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:1">
-      <c r="A9" s="2" t="s">
         <v>22</v>
       </c>
     </row>
@@ -36662,7 +36658,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>40</v>
@@ -36685,24 +36681,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -36717,12 +36713,12 @@
   <sheetPr/>
   <dimension ref="A1:XFD4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A1" sqref="$A1:$XFD2"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="3"/>
@@ -36732,9 +36728,9 @@
     <col min="4" max="5" width="13.3916666666667" style="1"/>
     <col min="6" max="7" width="12.75" style="1" customWidth="1"/>
     <col min="8" max="8" width="10.8166666666667" style="1"/>
-    <col min="9" max="1029" width="8.78333333333333" style="1"/>
-    <col min="1030" max="1031" width="8.78333333333333" style="8"/>
-    <col min="1032" max="16384" width="9" style="8"/>
+    <col min="9" max="1031" width="8.78333333333333" style="1"/>
+    <col min="1032" max="1033" width="8.78333333333333" style="8"/>
+    <col min="1034" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:16384">
@@ -36746,14 +36742,16 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="12" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I1" s="12"/>
       <c r="J1" s="12"/>
       <c r="K1" s="12"/>
       <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
+      <c r="M1" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N1" s="12"/>
       <c r="O1" s="14"/>
       <c r="P1" s="14"/>
       <c r="Q1" s="14"/>
@@ -37768,8 +37766,8 @@
       <c r="AML1" s="14"/>
       <c r="AMM1" s="14"/>
       <c r="AMN1" s="14"/>
-      <c r="AMO1"/>
-      <c r="AMP1"/>
+      <c r="AMO1" s="14"/>
+      <c r="AMP1" s="14"/>
       <c r="AMQ1"/>
       <c r="AMR1"/>
       <c r="AMS1"/>
@@ -53133,52 +53131,56 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R2" s="14"/>
-      <c r="S2" s="14"/>
       <c r="T2" s="14"/>
       <c r="U2" s="14"/>
       <c r="V2" s="14"/>
@@ -54188,8 +54190,8 @@
       <c r="AML2" s="14"/>
       <c r="AMM2" s="14"/>
       <c r="AMN2" s="14"/>
-      <c r="AMO2"/>
-      <c r="AMP2"/>
+      <c r="AMO2" s="14"/>
+      <c r="AMP2" s="14"/>
       <c r="AMQ2"/>
       <c r="AMR2"/>
       <c r="AMS2"/>
@@ -69545,30 +69547,30 @@
       <c r="XFC2"/>
       <c r="XFD2"/>
     </row>
-    <row r="3" customHeight="1" spans="1:16">
+    <row r="3" customHeight="1" spans="1:18">
       <c r="A3" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I3" s="9">
         <v>4.58e-17</v>
@@ -69577,18 +69579,24 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="N3" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="P3" s="1" t="s">
+      <c r="R3" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:16">
+    <row r="4" customHeight="1" spans="1:18">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>85</v>
@@ -69597,16 +69605,16 @@
         <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G4" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -69615,12 +69623,18 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="P4" s="1" t="s">
+      <c r="M4" s="1">
+        <v>7.75</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="R4" s="1" t="s">
         <v>88</v>
       </c>
     </row>
@@ -69628,8 +69642,9 @@
   <autoFilter ref="A2:G4">
     <extLst/>
   </autoFilter>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="H1:K1"/>
+    <mergeCell ref="M1:N1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
@@ -69896,7 +69911,7 @@
         <v>116</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -69916,128 +69931,128 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>98</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>104</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>94</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -70090,16 +70105,16 @@
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>69</v>
+        <v>128</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>129</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>71</v>
+        <v>130</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -70119,104 +70134,104 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E2" s="19">
         <v>0.000148</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="19">
         <v>0.0002</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="19">
         <v>0.0005</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="19">
         <v>0.0005</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="19">
         <v>0.001</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="19">
         <v>0.002</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" activeTab="13"/>
+    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -35,7 +35,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$23</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$G$4</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$1:$I$8</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$K$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$F$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">References!$A$1:$D$1</definedName>
@@ -47,13 +47,13 @@
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$1:$I$6</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="6">'Species types'!$A$2:$K$7</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
     <definedName name="_FilterDatabase_0_0_0" localSheetId="11">Reactions!$A$2:$D$6</definedName>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="230">
   <si>
     <t>Table</t>
   </si>
@@ -350,6 +350,15 @@
     <t>Structure</t>
   </si>
   <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Format</t>
+  </si>
+  <si>
+    <t>Alphabet</t>
+  </si>
+  <si>
     <t>Empirical formula</t>
   </si>
   <si>
@@ -368,9 +377,6 @@
     <t>specie_name_1</t>
   </si>
   <si>
-    <t>CO</t>
-  </si>
-  <si>
     <t>pseudo_species</t>
   </si>
   <si>
@@ -380,16 +386,10 @@
     <t>specie_name_2</t>
   </si>
   <si>
-    <t>NONa2</t>
-  </si>
-  <si>
     <t>specie_3</t>
   </si>
   <si>
     <t>specie_name_3</t>
-  </si>
-  <si>
-    <t>N2O2Na4</t>
   </si>
   <si>
     <t>specie_4</t>
@@ -398,25 +398,16 @@
     <t>specie_name_4</t>
   </si>
   <si>
-    <t>N5O5Na10</t>
-  </si>
-  <si>
     <t>specie_5</t>
   </si>
   <si>
     <t>specie_name_5</t>
   </si>
   <si>
-    <t>N2O2</t>
-  </si>
-  <si>
     <t>specie_6</t>
   </si>
   <si>
     <t>specie_name_6</t>
-  </si>
-  <si>
-    <t>NONa10</t>
   </si>
   <si>
     <t>biomass</t>
@@ -620,9 +611,6 @@
     <t>dFBA objective reaction</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Standard error</t>
   </si>
   <si>
@@ -790,12 +778,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
-    <numFmt numFmtId="176" formatCode="0.000E+00"/>
+    <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -844,6 +832,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -857,19 +859,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -880,8 +881,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -890,13 +892,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -911,7 +906,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -933,8 +935,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -947,39 +965,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1006,7 +994,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1018,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,7 +1030,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1042,25 +1054,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1072,7 +1066,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1084,13 +1102,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,25 +1156,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1132,61 +1174,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,21 +1206,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1244,15 +1217,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1306,139 +1270,163 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1493,20 +1481,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="35" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="35" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2193,7 +2181,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>70</v>
@@ -2253,7 +2241,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
@@ -2276,10 +2264,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>80</v>
@@ -2287,10 +2275,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>80</v>
@@ -2337,7 +2325,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="16" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -18725,22 +18713,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>141</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>144</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>70</v>
@@ -35133,22 +35121,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E3" s="17">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -35157,22 +35145,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E4" s="17">
         <v>0</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -35181,22 +35169,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -35205,22 +35193,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>57</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" s="17">
         <v>0</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -35229,22 +35217,22 @@
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>
@@ -35292,16 +35280,16 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>70</v>
@@ -35324,19 +35312,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -35344,19 +35332,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D3" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>166</v>
-      </c>
       <c r="G3" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -35364,19 +35352,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -35384,19 +35372,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -35405,19 +35393,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G6" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -35442,7 +35430,7 @@
   <sheetPr/>
   <dimension ref="A1:L2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -35463,19 +35451,19 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>40</v>
@@ -35495,19 +35483,19 @@
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>82</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>39</v>
@@ -35547,13 +35535,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>40</v>
@@ -35614,13 +35602,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="F1" s="12" t="s">
         <v>70</v>
@@ -35684,13 +35672,13 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>70</v>
@@ -35713,10 +35701,10 @@
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
@@ -35725,91 +35713,91 @@
         <v>82</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D4" s="10">
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D5" s="10">
         <v>0.0003</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D6" s="10">
         <v>0.0003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D7" s="10">
         <v>0.0003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D8" s="10">
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
@@ -35820,7 +35808,7 @@
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
@@ -35831,18 +35819,18 @@
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D11" s="10">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>
@@ -35882,7 +35870,7 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>70</v>
@@ -35933,7 +35921,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:20">
       <c r="G1" s="8" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8" t="s">
@@ -35945,11 +35933,11 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="Q1" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="T1" s="7"/>
     </row>
@@ -35961,22 +35949,22 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>50</v>
@@ -35988,19 +35976,19 @@
         <v>61</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="Q2" s="5" t="s">
         <v>27</v>
@@ -36179,7 +36167,7 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="H1" s="7"/>
     </row>
@@ -36191,16 +36179,16 @@
         <v>27</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>179</v>
+        <v>89</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>27</v>
@@ -36301,46 +36289,46 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>218</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>40</v>
@@ -36386,28 +36374,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -36448,28 +36436,28 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>232</v>
       </c>
       <c r="K1" s="2" t="s">
         <v>40</v>
@@ -36490,7 +36478,7 @@
         <v>23</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -36751,19 +36739,19 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
       <c r="L1" s="14"/>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="21" t="s">
         <v>61</v>
       </c>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
+      <c r="N1" s="21"/>
+      <c r="O1" s="21"/>
+      <c r="P1" s="21"/>
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
@@ -53134,7 +53122,7 @@
       <c r="XFD1"/>
     </row>
     <row r="2" s="3" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -69681,222 +69669,220 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMK14"/>
+  <dimension ref="A1:AMM15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomRight" activeCell="F3" sqref="F3:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.78333333333333" style="1"/>
     <col min="2" max="2" width="15.3166666666667" style="1"/>
-    <col min="3" max="3" width="11.4583333333333" style="1"/>
-    <col min="4" max="4" width="16.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.3916666666667" style="1"/>
-    <col min="6" max="6" width="9.425" style="1"/>
-    <col min="7" max="8" width="19.3916666666667" style="1"/>
-    <col min="9" max="10" width="10.5" style="1"/>
-    <col min="11" max="1024" width="8.78333333333333" style="1"/>
-    <col min="1025" max="1026" width="8.78333333333333" style="20"/>
-    <col min="1027" max="16384" width="9" style="20"/>
+    <col min="3" max="5" width="11.4583333333333" style="1"/>
+    <col min="6" max="6" width="16.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.3916666666667" style="1"/>
+    <col min="8" max="8" width="9.425" style="1"/>
+    <col min="9" max="10" width="19.3916666666667" style="1"/>
+    <col min="11" max="12" width="10.5" style="1"/>
+    <col min="13" max="1026" width="8.78333333333333" style="1"/>
+    <col min="1027" max="1028" width="8.78333333333333" style="20"/>
+    <col min="1029" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:1025">
-      <c r="A1" s="2" t="s">
+    <row r="1" customHeight="1" spans="3:8">
+      <c r="C1" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:1027">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="G2" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="AMK1" s="20"/>
+      <c r="AMM2" s="20"/>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>93</v>
+    <row r="3" customHeight="1" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>96</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>94</v>
+      <c r="B3" s="1" t="s">
+        <v>97</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="G3" s="1">
         <v>1</v>
       </c>
-      <c r="F2" s="1">
+      <c r="H3" s="1">
         <v>0</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H2" s="19"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="J3" s="19"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:10">
+      <c r="A4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="1">
+      <c r="B4" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="H4" s="1">
         <v>0</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>96</v>
+      <c r="I4" s="1" t="s">
+        <v>98</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="J4" s="19"/>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="5" customHeight="1" spans="1:10">
+      <c r="A5" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="1">
+      <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="F4" s="1">
+      <c r="H5" s="1">
         <v>0</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>96</v>
+      <c r="I5" s="1" t="s">
+        <v>98</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="J5" s="19"/>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="1" t="s">
+    <row r="6" customHeight="1" spans="1:10">
+      <c r="A6" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="G6" s="1">
+        <v>4</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="J6" s="19"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:10">
+      <c r="A7" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="1">
-        <v>4</v>
+      <c r="B7" s="1" t="s">
+        <v>106</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G7" s="1">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1">
         <v>0</v>
       </c>
-      <c r="G5" s="1" t="s">
-        <v>96</v>
+      <c r="I7" s="1" t="s">
+        <v>98</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="J7" s="19"/>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="8" customHeight="1" spans="1:9">
+      <c r="A8" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E6" s="1">
-        <v>5</v>
+      <c r="G8" s="1">
+        <v>6</v>
       </c>
-      <c r="F6" s="1">
+      <c r="H8" s="1">
         <v>0</v>
       </c>
-      <c r="G6" s="1" t="s">
-        <v>96</v>
+      <c r="I8" s="1" t="s">
+        <v>98</v>
       </c>
-      <c r="H6" s="19"/>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
-      <c r="A7" s="1" t="s">
+    <row r="9" customHeight="1" spans="1:9">
+      <c r="A9" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B9" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G9" s="1">
+        <v>10</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="D7" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E7" s="1">
-        <v>6</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>96</v>
-      </c>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
-      <c r="A8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E8" s="1">
-        <v>10</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="7:7">
-      <c r="G14" s="15"/>
+    <row r="15" customHeight="1" spans="9:9">
+      <c r="I15" s="15"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I8">
+  <autoFilter ref="A2:K9">
     <extLst/>
   </autoFilter>
+  <mergeCells count="1">
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
@@ -69931,10 +69917,10 @@
         <v>27</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>70</v>
@@ -69957,49 +69943,49 @@
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>103</v>
@@ -70008,77 +69994,77 @@
         <v>72</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>72</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -70160,10 +70146,10 @@
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>79</v>
@@ -70172,15 +70158,15 @@
         <v>0.000148</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>79</v>
@@ -70189,15 +70175,15 @@
         <v>0.0002</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>79</v>
@@ -70206,15 +70192,15 @@
         <v>0.0005</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>79</v>
@@ -70223,15 +70209,15 @@
         <v>0.0005</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>79</v>
@@ -70240,15 +70226,15 @@
         <v>0.001</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>79</v>
@@ -70257,7 +70243,7 @@
         <v>0.002</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>

--- a/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
+++ b/tests/multialgorithm/submodels/fixtures/test_submodel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20295" windowHeight="6945" tabRatio="993" activeTab="6"/>
+    <workbookView windowWidth="28695" windowHeight="14070" tabRatio="993" firstSheet="9" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="Table of contents" sheetId="24" r:id="rId1"/>
@@ -26,19 +26,20 @@
     <sheet name="dFBA objective species" sheetId="13" r:id="rId16"/>
     <sheet name="Parameters" sheetId="14" r:id="rId17"/>
     <sheet name="Stop conditions" sheetId="15" r:id="rId18"/>
-    <sheet name="Evidence" sheetId="19" r:id="rId19"/>
-    <sheet name="Interpretations" sheetId="21" r:id="rId20"/>
-    <sheet name="References" sheetId="16" r:id="rId21"/>
-    <sheet name="Authors" sheetId="22" r:id="rId22"/>
-    <sheet name="Changes" sheetId="23" r:id="rId23"/>
+    <sheet name="Observations" sheetId="19" r:id="rId19"/>
+    <sheet name="Observation sets" sheetId="25" r:id="rId20"/>
+    <sheet name="Conclusions" sheetId="21" r:id="rId21"/>
+    <sheet name="References" sheetId="16" r:id="rId22"/>
+    <sheet name="Authors" sheetId="22" r:id="rId23"/>
+    <sheet name="Changes" sheetId="23" r:id="rId24"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$23</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Table of contents'!$A$1:$C$24</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Compartments!$A$2:$G$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Species types'!$A$2:$K$9</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">Reactions!$A$2:$D$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">Parameters!$A$1:$F$11</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">References!$A$1:$D$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">References!$A$1:$D$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4">Submodels!#REF!</definedName>
     <definedName name="_FilterDatabase_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
     <definedName name="_FilterDatabase_0_0" localSheetId="5">Compartments!$A$2:$G$4</definedName>
@@ -68,20 +69,20 @@
     <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
     <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="16">Parameters!$A$1:$F$1</definedName>
-    <definedName name="_FilterDatabase_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
-    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="20">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
+    <definedName name="_FilterDatabase_0_0_0_0_0_0_0" localSheetId="21">References!$A$1:$D$1</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="521" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="232">
   <si>
     <t>Table</t>
   </si>
@@ -143,10 +144,13 @@
     <t>Stop conditions</t>
   </si>
   <si>
-    <t>Evidence</t>
+    <t>Observations</t>
   </si>
   <si>
-    <t>Interpretations</t>
+    <t>Observation sets</t>
+  </si>
+  <si>
+    <t>Conclusions</t>
   </si>
   <si>
     <t>References</t>
@@ -243,6 +247,9 @@
   </si>
   <si>
     <t>Framework</t>
+  </si>
+  <si>
+    <t>Evidence</t>
   </si>
   <si>
     <t>submodel_1</t>
@@ -662,10 +669,10 @@
     <t>Genotype</t>
   </si>
   <si>
-    <t>Measurement method</t>
+    <t>Data generation process</t>
   </si>
   <si>
-    <t>Analysis method</t>
+    <t>Data analysis process</t>
   </si>
   <si>
     <t>Variant</t>
@@ -686,7 +693,10 @@
     <t>Experiment design</t>
   </si>
   <si>
-    <t>Method</t>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Date</t>
   </si>
   <si>
     <t>Title</t>
@@ -769,9 +779,6 @@
   <si>
     <t>Intention type</t>
   </si>
-  <si>
-    <t>Date</t>
-  </si>
 </sst>
 </file>
 
@@ -779,11 +786,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="0.000E+00"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -832,8 +839,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -841,6 +849,21 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,30 +883,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -905,23 +920,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -935,22 +943,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -958,8 +950,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,7 +974,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -994,19 +1001,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1018,7 +1025,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1030,13 +1037,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1048,7 +1049,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1066,7 +1067,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1078,7 +1097,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,7 +1139,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1102,79 +1163,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1194,6 +1201,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1236,17 +1258,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1262,34 +1287,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1297,136 +1304,136 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1897,12 +1904,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="A21" sqref="A19:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" zeroHeight="1" outlineLevelCol="2"/>
@@ -2090,7 +2097,7 @@
       </c>
       <c r="B20" s="27"/>
       <c r="C20" s="27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="1:3">
@@ -2099,7 +2106,7 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27">
-        <v>21</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="1:3">
@@ -2108,7 +2115,7 @@
       </c>
       <c r="B22" s="27"/>
       <c r="C22" s="27">
-        <v>0</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="1:3">
@@ -2120,9 +2127,18 @@
         <v>0</v>
       </c>
     </row>
+    <row r="24" customHeight="1" spans="1:3">
+      <c r="A24" s="27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <sheetProtection sheet="1" insertRows="0" deleteRows="0" sort="0" autoFilter="0" objects="1" scenarios="1"/>
-  <autoFilter ref="A1:C23">
+  <autoFilter ref="A1:C24">
     <extLst/>
   </autoFilter>
   <hyperlinks>
@@ -2143,11 +2159,11 @@
     <hyperlink ref="A16" location="'dFBA objective species'!A1" display="dFBA objective species" tooltip="Click to view dfba objective species"/>
     <hyperlink ref="A17" location="'Parameters'!A1" display="Parameters" tooltip="Click to view parameters"/>
     <hyperlink ref="A18" location="'Stop conditions'!A1" display="Stop conditions" tooltip="Click to view stop conditions"/>
-    <hyperlink ref="A19" location="'Evidence'!A1" display="Evidence" tooltip="Click to view evidence"/>
-    <hyperlink ref="A20" location="'Interpretations'!A1" display="Interpretations" tooltip="Click to view interpretations"/>
-    <hyperlink ref="A21" location="'References'!A1" display="References" tooltip="Click to view references"/>
-    <hyperlink ref="A22" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
-    <hyperlink ref="A23" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
+    <hyperlink ref="A19" location="'Evidence'!A1" display="Observations" tooltip="Click to view evidence"/>
+    <hyperlink ref="A21" location="'Interpretations'!A1" display="Conclusions" tooltip="Click to view interpretations"/>
+    <hyperlink ref="A22" location="'References'!A1" display="References" tooltip="Click to view references"/>
+    <hyperlink ref="A23" location="'Authors'!A1" display="Authors" tooltip="Click to view authors"/>
+    <hyperlink ref="A24" location="'Changes'!A1" display="Changes" tooltip="Click to view changes"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -2175,31 +2191,31 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -2235,53 +2251,53 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -2325,7 +2341,7 @@
       <c r="E1" s="14"/>
       <c r="F1" s="14"/>
       <c r="G1" s="16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H1" s="16"/>
       <c r="I1" s="16"/>
@@ -18707,46 +18723,46 @@
     </row>
     <row r="2" s="3" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="O2" s="14"/>
       <c r="P2" s="14"/>
@@ -35121,22 +35137,22 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E3" s="17">
         <v>0</v>
       </c>
       <c r="F3" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G3" s="17"/>
       <c r="H3" s="17"/>
@@ -35145,22 +35161,22 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E4" s="17">
         <v>0</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G4" s="17"/>
       <c r="H4" s="17"/>
@@ -35169,22 +35185,22 @@
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E5" s="17">
         <v>1</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
@@ -35193,22 +35209,22 @@
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E6" s="17">
         <v>0</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G6" s="17"/>
       <c r="H6" s="17"/>
@@ -35217,22 +35233,22 @@
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E7" s="1">
         <v>0</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -35274,57 +35290,57 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H2"/>
       <c r="I2"/>
@@ -35332,19 +35348,19 @@
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>160</v>
-      </c>
       <c r="F3" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G3" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H3"/>
       <c r="I3"/>
@@ -35352,19 +35368,19 @@
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H4"/>
       <c r="I4"/>
@@ -35372,19 +35388,19 @@
     </row>
     <row r="5" customHeight="1" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H5"/>
       <c r="I5"/>
@@ -35393,19 +35409,19 @@
     </row>
     <row r="6" customHeight="1" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="H6"/>
       <c r="I6"/>
@@ -35445,60 +35461,60 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -35529,34 +35545,34 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -35596,37 +35612,37 @@
   <sheetData>
     <row r="1" ht="15.1" customHeight="1" spans="1:11">
       <c r="A1" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>9</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -35666,171 +35682,171 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:11">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D2" s="1">
         <v>0.3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D4" s="10">
         <v>2000</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D5" s="10">
         <v>0.0003</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D6" s="10">
         <v>0.0003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D7" s="10">
         <v>0.0003</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D8" s="10">
         <v>0.001</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D9" s="1">
         <v>1100</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D10" s="1">
         <v>1000</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D11" s="10">
         <v>6.02214075862e+23</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -35864,31 +35880,31 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:9">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -35904,14 +35920,14 @@
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Q1" sqref="Q1:T2"/>
+      <selection pane="bottomRight" activeCell="V1" sqref="V$1:V$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="1"/>
@@ -35921,7 +35937,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="7:20">
       <c r="G1" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H1" s="8"/>
       <c r="I1" s="8" t="s">
@@ -35933,86 +35949,83 @@
       <c r="M1" s="8"/>
       <c r="N1" s="8"/>
       <c r="Q1" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="R1" s="7"/>
       <c r="S1" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="T1" s="7"/>
     </row>
-    <row r="2" customHeight="1" spans="1:24">
+    <row r="2" customHeight="1" spans="1:23">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="N2" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P2" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="S2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="T2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="W2" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="X2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -36048,89 +36061,89 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:2">
       <c r="A8" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:2">
       <c r="A9" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="24"/>
     </row>
     <row r="10" customHeight="1" spans="1:2">
       <c r="A10" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B10" s="24"/>
     </row>
     <row r="11" customHeight="1" spans="1:2">
       <c r="A11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B11" s="24"/>
     </row>
     <row r="12" customHeight="1" spans="1:2">
       <c r="A12" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B12" s="24"/>
     </row>
@@ -36147,14 +36160,72 @@
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F5" sqref="A2:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="14" style="1" customWidth="1"/>
+    <col min="2" max="3" width="13.3916666666667" style="1"/>
+    <col min="4" max="1017" width="9.10833333333333" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="15.1" customHeight="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="15.1" customHeight="1"/>
+    <row r="3" ht="15.1" customHeight="1"/>
+    <row r="4" ht="15.1" customHeight="1"/>
+    <row r="5" ht="15.1" customHeight="1"/>
+    <row r="6" ht="15.1" customHeight="1"/>
+    <row r="7" ht="15.1" customHeight="1"/>
+    <row r="8" ht="15.1" customHeight="1"/>
+    <row r="9" ht="15.1" customHeight="1"/>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G1:H2"/>
+      <selection pane="bottomRight" activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -36167,49 +36238,52 @@
   <sheetData>
     <row r="1" spans="7:8">
       <c r="G1" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H1" s="7"/>
     </row>
-    <row r="2" ht="15.1" customHeight="1" spans="1:13">
+    <row r="2" ht="15.1" customHeight="1" spans="1:14">
       <c r="A2" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M2" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="3" ht="15.1" customHeight="1" spans="3:4">
@@ -36257,7 +36331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:AMJ1"/>
@@ -36283,58 +36357,58 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1024">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AMJ1" s="4"/>
     </row>
@@ -36348,7 +36422,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:L1"/>
@@ -36368,40 +36442,40 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -36410,7 +36484,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q1"/>
@@ -36430,55 +36504,55 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -36506,44 +36580,44 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:1">
       <c r="A4" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -36574,20 +36648,20 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:2">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:1">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B3" s="1">
         <v>37</v>
@@ -36595,25 +36669,25 @@
     </row>
     <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
       <c r="A5" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:1">
       <c r="A6" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:1">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -36632,7 +36706,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomRight" activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" customHeight="1" outlineLevelRow="2"/>
@@ -36650,28 +36724,28 @@
   <sheetData>
     <row r="1" s="3" customFormat="1" customHeight="1" spans="1:1025">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AMI1" s="9"/>
       <c r="AMJ1" s="9"/>
@@ -36679,24 +36753,24 @@
     </row>
     <row r="2" customHeight="1" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:3">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -36740,14 +36814,14 @@
       <c r="F1" s="14"/>
       <c r="G1" s="14"/>
       <c r="H1" s="21" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="I1" s="21"/>
       <c r="J1" s="21"/>
       <c r="K1" s="21"/>
       <c r="L1" s="14"/>
       <c r="M1" s="21" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N1" s="21"/>
       <c r="O1" s="21"/>
@@ -53123,67 +53197,67 @@
     </row>
     <row r="2" s="3" customFormat="1" ht="15.1" customHeight="1" spans="1:16384">
       <c r="A2" s="22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="J2" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M2" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="P2" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R2" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V2" s="14"/>
       <c r="W2" s="14"/>
@@ -69551,28 +69625,28 @@
     </row>
     <row r="3" customHeight="1" spans="1:20">
       <c r="A3" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I3" s="10">
         <v>4.58e-17</v>
@@ -69581,13 +69655,13 @@
         <v>4.58e-18</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N3" s="1">
         <v>7.75</v>
@@ -69596,33 +69670,33 @@
         <v>0.775</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:20">
       <c r="A4" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I4" s="1">
         <v>1</v>
@@ -69631,13 +69705,13 @@
         <v>0</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N4" s="1">
         <v>7.75</v>
@@ -69646,10 +69720,10 @@
         <v>0.775</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="T4" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -69671,7 +69745,7 @@
   <sheetPr/>
   <dimension ref="A1:AMM15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -69696,7 +69770,7 @@
   <sheetData>
     <row r="1" customHeight="1" spans="3:8">
       <c r="C1" s="21" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D1" s="21"/>
       <c r="E1" s="21"/>
@@ -69706,55 +69780,55 @@
     </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:1027">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AMM2" s="20"/>
     </row>
     <row r="3" customHeight="1" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -69763,16 +69837,16 @@
         <v>0</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J3" s="19"/>
     </row>
     <row r="4" customHeight="1" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -69781,16 +69855,16 @@
         <v>0</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J4" s="19"/>
     </row>
     <row r="5" customHeight="1" spans="1:10">
       <c r="A5" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G5" s="1">
         <v>3</v>
@@ -69799,16 +69873,16 @@
         <v>0</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J5" s="19"/>
     </row>
     <row r="6" customHeight="1" spans="1:10">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G6" s="1">
         <v>4</v>
@@ -69817,16 +69891,16 @@
         <v>0</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J6" s="19"/>
     </row>
     <row r="7" customHeight="1" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G7" s="1">
         <v>5</v>
@@ -69835,16 +69909,16 @@
         <v>0</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="J7" s="19"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G8" s="1">
         <v>6</v>
@@ -69853,15 +69927,15 @@
         <v>0</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G9" s="1">
         <v>10</v>
@@ -69870,7 +69944,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="9:9">
@@ -69911,160 +69985,160 @@
   <sheetData>
     <row r="1" customHeight="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:5">
       <c r="A4" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:5">
       <c r="A5" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" customHeight="1" spans="1:5">
       <c r="A6" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:5">
       <c r="A7" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:5">
       <c r="A8" s="1" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:5">
       <c r="A9" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="1:5">
       <c r="A10" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -70108,142 +70182,142 @@
   <sheetData>
     <row r="1" ht="15" customHeight="1" spans="1:12">
       <c r="A1" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" ht="15" customHeight="1" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E2" s="19">
         <v>0.000148</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="15" customHeight="1" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E3" s="19">
         <v>0.0002</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" ht="15" customHeight="1" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E4" s="19">
         <v>0.0005</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" ht="15" customHeight="1" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E5" s="19">
         <v>0.0005</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" ht="15" customHeight="1" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E6" s="19">
         <v>0.001</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" ht="15" customHeight="1" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E7" s="19">
         <v>0.002</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
